--- a/Database.xlsx
+++ b/Database.xlsx
@@ -5,21 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\STOCK_Update\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\SIM-Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBE88B9-B48A-4711-A726-FF1B0C92A9F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18736A09-AEB3-4D3C-9409-F0508D256552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DB!$A$1:$N$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DB!$A$1:$O$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="198">
   <si>
     <t>Component description</t>
   </si>
@@ -591,7 +588,46 @@
     <t>Part-Type</t>
   </si>
   <si>
-    <t>BF</t>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>FG1</t>
+  </si>
+  <si>
+    <t>FTG/SCK/SIM</t>
+  </si>
+  <si>
+    <t>Den-Bar</t>
+  </si>
+  <si>
+    <t>FTG-Cost</t>
+  </si>
+  <si>
+    <t>5698002300-1</t>
+  </si>
+  <si>
+    <t>5698002300-2</t>
+  </si>
+  <si>
+    <t>2300-1</t>
+  </si>
+  <si>
+    <t>2300-2</t>
+  </si>
+  <si>
+    <t>Steel Bush-Pacific</t>
+  </si>
+  <si>
+    <t>Steel Bush-Kodaco</t>
+  </si>
+  <si>
+    <t>Steel Bush-Huada</t>
+  </si>
+  <si>
+    <t>5698002300-0</t>
   </si>
 </sst>
 </file>
@@ -678,7 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -699,6 +735,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -715,428 +757,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>3000</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>3100</v>
-          </cell>
-          <cell r="B3">
-            <v>1255</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>493C</v>
-          </cell>
-          <cell r="B4">
-            <v>2418</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>1771</v>
-          </cell>
-          <cell r="B5">
-            <v>2547</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>0802</v>
-          </cell>
-          <cell r="B6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>2001</v>
-          </cell>
-          <cell r="B7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>2200</v>
-          </cell>
-          <cell r="B8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>4600</v>
-          </cell>
-          <cell r="B9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>0201</v>
-          </cell>
-          <cell r="B10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>4946</v>
-          </cell>
-          <cell r="B11">
-            <v>1482</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>9706</v>
-          </cell>
-          <cell r="B12">
-            <v>240</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>9708</v>
-          </cell>
-          <cell r="B13">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>5679</v>
-          </cell>
-          <cell r="B14">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>9524</v>
-          </cell>
-          <cell r="B15">
-            <v>942</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>2102</v>
-          </cell>
-          <cell r="B16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>6803</v>
-          </cell>
-          <cell r="B17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>4900</v>
-          </cell>
-          <cell r="B18">
-            <v>159</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>5000</v>
-          </cell>
-          <cell r="B19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>9910</v>
-          </cell>
-          <cell r="B20">
-            <v>862</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>9907</v>
-          </cell>
-          <cell r="B21">
-            <v>159</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>9112</v>
-          </cell>
-          <cell r="B22">
-            <v>201</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>9115</v>
-          </cell>
-          <cell r="B23">
-            <v>300</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>3102</v>
-          </cell>
-          <cell r="B24">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>5402</v>
-          </cell>
-          <cell r="B25">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>7702</v>
-          </cell>
-          <cell r="B26">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>1632</v>
-          </cell>
-          <cell r="B27">
-            <v>970</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>1732</v>
-          </cell>
-          <cell r="B28">
-            <v>1111</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>5130</v>
-          </cell>
-          <cell r="B29">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>5230</v>
-          </cell>
-          <cell r="B30">
-            <v>68</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>5330</v>
-          </cell>
-          <cell r="B31">
-            <v>562</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>9231</v>
-          </cell>
-          <cell r="B32">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>9330</v>
-          </cell>
-          <cell r="B33">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>2532</v>
-          </cell>
-          <cell r="B34">
-            <v>703</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>2633</v>
-          </cell>
-          <cell r="B35">
-            <v>450</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>4600</v>
-          </cell>
-          <cell r="B36">
-            <v>1875</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>2031</v>
-          </cell>
-          <cell r="B37">
-            <v>5003</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>0201</v>
-          </cell>
-          <cell r="B38">
-            <v>842</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>2102</v>
-          </cell>
-          <cell r="B39">
-            <v>905</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>6803</v>
-          </cell>
-          <cell r="B40">
-            <v>1000</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>3132</v>
-          </cell>
-          <cell r="B41">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>7702</v>
-          </cell>
-          <cell r="B42">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>6832</v>
-          </cell>
-          <cell r="B43">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>2798</v>
-          </cell>
-          <cell r="B44">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>9680</v>
-          </cell>
-          <cell r="B45">
-            <v>142</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>9775</v>
-          </cell>
-          <cell r="B46">
-            <v>119</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>7053</v>
-          </cell>
-          <cell r="B47">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>7055</v>
-          </cell>
-          <cell r="B48">
-            <v>39</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>3113</v>
-          </cell>
-          <cell r="B49">
-            <v>409</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>T3100</v>
-          </cell>
-          <cell r="B50">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>3113</v>
-          </cell>
-          <cell r="B51">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>4900</v>
-          </cell>
-          <cell r="B52">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1460,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1476,11 +1096,12 @@
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.44140625" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -1517,20 +1138,20 @@
       <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1567,21 +1188,18 @@
       <c r="K2" s="2">
         <v>0</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="9">
-        <v>90</v>
-      </c>
-      <c r="O2" t="s">
-        <v>181</v>
-      </c>
-      <c r="P2" t="e">
-        <f>VLOOKUP(B2,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9">
+        <v>90</v>
+      </c>
+      <c r="P2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1618,21 +1236,18 @@
       <c r="K3" s="2">
         <v>0</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="2"/>
+      <c r="M3" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="9">
-        <v>90</v>
-      </c>
-      <c r="O3" t="s">
-        <v>181</v>
-      </c>
-      <c r="P3" t="e">
-        <f>VLOOKUP(B3,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9">
+        <v>90</v>
+      </c>
+      <c r="P3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -1669,21 +1284,18 @@
       <c r="K4" s="2">
         <v>0</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="2"/>
+      <c r="M4" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="9">
-        <v>90</v>
-      </c>
-      <c r="O4" t="s">
-        <v>181</v>
-      </c>
-      <c r="P4" t="e">
-        <f>VLOOKUP(B4,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9">
+        <v>90</v>
+      </c>
+      <c r="P4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -1720,21 +1332,18 @@
       <c r="K5" s="2">
         <v>0</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="2"/>
+      <c r="M5" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9">
-        <v>90</v>
-      </c>
-      <c r="O5" t="s">
-        <v>181</v>
-      </c>
-      <c r="P5" t="e">
-        <f>VLOOKUP(B5,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>90</v>
+      </c>
+      <c r="P5" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1771,21 +1380,18 @@
       <c r="K6" s="2">
         <v>0</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="2"/>
+      <c r="M6" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9">
-        <v>90</v>
-      </c>
-      <c r="O6" t="s">
-        <v>181</v>
-      </c>
-      <c r="P6" t="e">
-        <f>VLOOKUP(B6,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>90</v>
+      </c>
+      <c r="P6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -1822,21 +1428,18 @@
       <c r="K7" s="2">
         <v>0</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="2"/>
+      <c r="M7" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9">
-        <v>90</v>
-      </c>
-      <c r="O7" t="s">
-        <v>181</v>
-      </c>
-      <c r="P7" t="e">
-        <f>VLOOKUP(B7,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>90</v>
+      </c>
+      <c r="P7" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1873,21 +1476,18 @@
       <c r="K8" s="2">
         <v>0</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="2"/>
+      <c r="M8" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
-        <v>90</v>
-      </c>
-      <c r="O8" t="s">
-        <v>181</v>
-      </c>
-      <c r="P8" t="e">
-        <f>VLOOKUP(B8,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
+        <v>90</v>
+      </c>
+      <c r="P8" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1924,21 +1524,18 @@
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="2"/>
+      <c r="M9" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="9">
-        <v>90</v>
-      </c>
-      <c r="O9" t="s">
-        <v>181</v>
-      </c>
-      <c r="P9" t="e">
-        <f>VLOOKUP(B9,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>90</v>
+      </c>
+      <c r="P9" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1975,21 +1572,18 @@
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="2"/>
+      <c r="M10" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9">
-        <v>90</v>
-      </c>
-      <c r="O10" t="s">
-        <v>181</v>
-      </c>
-      <c r="P10" t="e">
-        <f>VLOOKUP(B10,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9">
+        <v>90</v>
+      </c>
+      <c r="P10" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -2026,21 +1620,18 @@
       <c r="K11" s="2">
         <v>0</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="2"/>
+      <c r="M11" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="9">
-        <v>90</v>
-      </c>
-      <c r="O11" t="s">
-        <v>181</v>
-      </c>
-      <c r="P11" t="e">
-        <f>VLOOKUP(B11,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
+        <v>90</v>
+      </c>
+      <c r="P11" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -2077,21 +1668,18 @@
       <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="2"/>
+      <c r="M12" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9">
-        <v>90</v>
-      </c>
-      <c r="O12" t="s">
-        <v>181</v>
-      </c>
-      <c r="P12" t="e">
-        <f>VLOOKUP(B12,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="9">
+        <v>90</v>
+      </c>
+      <c r="P12" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -2128,21 +1716,18 @@
       <c r="K13" s="2">
         <v>0</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="2"/>
+      <c r="M13" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="9">
-        <v>90</v>
-      </c>
-      <c r="O13" t="s">
-        <v>181</v>
-      </c>
-      <c r="P13" t="e">
-        <f>VLOOKUP(B13,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9">
+        <v>90</v>
+      </c>
+      <c r="P13" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -2179,21 +1764,18 @@
       <c r="K14" s="2">
         <v>0</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="2"/>
+      <c r="M14" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>90</v>
-      </c>
-      <c r="O14" t="s">
-        <v>181</v>
-      </c>
-      <c r="P14" t="e">
-        <f>VLOOKUP(B14,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <v>90</v>
+      </c>
+      <c r="P14" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -2230,21 +1812,18 @@
       <c r="K15" s="2">
         <v>0</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="2"/>
+      <c r="M15" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="9">
-        <v>90</v>
-      </c>
-      <c r="O15" t="s">
-        <v>181</v>
-      </c>
-      <c r="P15" t="e">
-        <f>VLOOKUP(B15,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="9">
+        <v>90</v>
+      </c>
+      <c r="P15" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -2281,21 +1860,18 @@
       <c r="K16" s="2">
         <v>0</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="2"/>
+      <c r="M16" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="9">
-        <v>90</v>
-      </c>
-      <c r="O16" t="s">
-        <v>181</v>
-      </c>
-      <c r="P16" t="e">
-        <f>VLOOKUP(B16,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="9">
+        <v>90</v>
+      </c>
+      <c r="P16" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -2332,21 +1908,18 @@
       <c r="K17" s="2">
         <v>0</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="2"/>
+      <c r="M17" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="9">
-        <v>90</v>
-      </c>
-      <c r="O17" t="s">
-        <v>181</v>
-      </c>
-      <c r="P17" t="e">
-        <f>VLOOKUP(B17,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
+        <v>90</v>
+      </c>
+      <c r="P17" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -2383,21 +1956,18 @@
       <c r="K18" s="2">
         <v>30</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="2"/>
+      <c r="M18" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="9">
-        <v>90</v>
-      </c>
-      <c r="O18" t="s">
-        <v>182</v>
-      </c>
-      <c r="P18" t="e">
-        <f>VLOOKUP(B18,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
+        <v>90</v>
+      </c>
+      <c r="P18" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -2434,21 +2004,18 @@
       <c r="K19" s="2">
         <v>0</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="2"/>
+      <c r="M19" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="N19" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="N19" s="9">
-        <v>90</v>
-      </c>
-      <c r="O19" t="s">
-        <v>181</v>
-      </c>
-      <c r="P19" t="e">
-        <f>VLOOKUP(B19,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="O19" s="9">
+        <v>90</v>
+      </c>
+      <c r="P19" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -2485,21 +2052,18 @@
       <c r="K20" s="2">
         <v>30</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="2"/>
+      <c r="M20" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="N20" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="N20" s="9">
-        <v>90</v>
-      </c>
-      <c r="O20" t="s">
-        <v>182</v>
-      </c>
-      <c r="P20" t="e">
-        <f>VLOOKUP(B20,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="O20" s="9">
+        <v>90</v>
+      </c>
+      <c r="P20" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -2536,21 +2100,18 @@
       <c r="K21" s="2">
         <v>30</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="2"/>
+      <c r="M21" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="N21" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="N21" s="9">
-        <v>90</v>
-      </c>
-      <c r="O21" t="s">
-        <v>182</v>
-      </c>
-      <c r="P21" t="e">
-        <f>VLOOKUP(B21,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="O21" s="9">
+        <v>90</v>
+      </c>
+      <c r="P21" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -2587,21 +2148,18 @@
       <c r="K22" s="2">
         <v>30</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="2"/>
+      <c r="M22" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="N22" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="N22" s="9">
-        <v>90</v>
-      </c>
-      <c r="O22" t="s">
-        <v>182</v>
-      </c>
-      <c r="P22" t="e">
-        <f>VLOOKUP(B22,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="O22" s="9">
+        <v>90</v>
+      </c>
+      <c r="P22" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -2638,21 +2196,18 @@
       <c r="K23" s="2">
         <v>30</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="2"/>
+      <c r="M23" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="9">
-        <v>90</v>
-      </c>
-      <c r="O23" t="s">
-        <v>182</v>
-      </c>
-      <c r="P23" t="e">
-        <f>VLOOKUP(B23,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
+        <v>90</v>
+      </c>
+      <c r="P23" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -2689,21 +2244,18 @@
       <c r="K24" s="2">
         <v>30</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" s="2"/>
+      <c r="M24" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M24" s="2">
-        <v>0</v>
-      </c>
-      <c r="N24" s="9">
-        <v>90</v>
-      </c>
-      <c r="O24" t="s">
-        <v>182</v>
-      </c>
-      <c r="P24">
-        <f>VLOOKUP(B24,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>0</v>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9">
+        <v>90</v>
+      </c>
+      <c r="P24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -2740,21 +2292,18 @@
       <c r="K25" s="2">
         <v>30</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" s="2"/>
+      <c r="M25" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="N25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="N25" s="9">
-        <v>90</v>
-      </c>
-      <c r="O25" t="s">
-        <v>182</v>
-      </c>
-      <c r="P25" t="e">
-        <f>VLOOKUP(B25,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="O25" s="9">
+        <v>90</v>
+      </c>
+      <c r="P25" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -2791,21 +2340,18 @@
       <c r="K26" s="2">
         <v>30</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" s="2"/>
+      <c r="M26" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="N26" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="N26" s="9">
-        <v>90</v>
-      </c>
-      <c r="O26" t="s">
-        <v>182</v>
-      </c>
-      <c r="P26" t="e">
-        <f>VLOOKUP(B26,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="O26" s="9">
+        <v>90</v>
+      </c>
+      <c r="P26" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2842,21 +2388,18 @@
       <c r="K27" s="2">
         <v>30</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" s="2"/>
+      <c r="M27" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="N27" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="N27" s="9">
-        <v>90</v>
-      </c>
-      <c r="O27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P27">
-        <f>VLOOKUP(B27,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>0</v>
+      <c r="O27" s="9">
+        <v>90</v>
+      </c>
+      <c r="P27" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -2893,21 +2436,18 @@
       <c r="K28" s="2">
         <v>0</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28" s="2"/>
+      <c r="M28" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="M28" s="7" t="s">
+      <c r="N28" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="N28" s="9">
-        <v>90</v>
-      </c>
-      <c r="O28" t="s">
-        <v>181</v>
-      </c>
-      <c r="P28" t="e">
-        <f>VLOOKUP(B28,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="O28" s="9">
+        <v>90</v>
+      </c>
+      <c r="P28" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -2944,21 +2484,18 @@
       <c r="K29" s="2">
         <v>30</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" s="2"/>
+      <c r="M29" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="N29" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="N29" s="9">
-        <v>90</v>
-      </c>
-      <c r="O29" t="s">
-        <v>182</v>
-      </c>
-      <c r="P29">
-        <f>VLOOKUP(B29,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>0</v>
+      <c r="O29" s="9">
+        <v>90</v>
+      </c>
+      <c r="P29" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -2995,21 +2532,18 @@
       <c r="K30" s="2">
         <v>0</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" s="2"/>
+      <c r="M30" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="N30" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="N30" s="9">
-        <v>90</v>
-      </c>
-      <c r="O30" t="s">
-        <v>181</v>
-      </c>
-      <c r="P30" t="e">
-        <f>VLOOKUP(B30,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="O30" s="9">
+        <v>90</v>
+      </c>
+      <c r="P30" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -3046,21 +2580,18 @@
       <c r="K31" s="2">
         <v>30</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" s="2"/>
+      <c r="M31" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="N31" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="N31" s="9">
-        <v>90</v>
-      </c>
-      <c r="O31" t="s">
-        <v>182</v>
-      </c>
-      <c r="P31" t="e">
-        <f>VLOOKUP(B31,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="O31" s="9">
+        <v>90</v>
+      </c>
+      <c r="P31" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -3097,21 +2628,18 @@
       <c r="K32" s="2">
         <v>45</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32" s="2"/>
+      <c r="M32" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="M32" s="2">
-        <v>0</v>
-      </c>
-      <c r="N32" s="9">
-        <v>90</v>
-      </c>
-      <c r="O32" t="s">
-        <v>182</v>
-      </c>
-      <c r="P32" t="e">
-        <f>VLOOKUP(B32,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="9">
+        <v>90</v>
+      </c>
+      <c r="P32" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -3148,21 +2676,18 @@
       <c r="K33" s="2">
         <v>45</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L33" s="2"/>
+      <c r="M33" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M33" s="2">
-        <v>0</v>
-      </c>
-      <c r="N33" s="9">
-        <v>90</v>
-      </c>
-      <c r="O33" t="s">
-        <v>182</v>
-      </c>
-      <c r="P33" t="e">
-        <f>VLOOKUP(B33,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9">
+        <v>90</v>
+      </c>
+      <c r="P33" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -3199,21 +2724,18 @@
       <c r="K34" s="2">
         <v>0</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="L34" s="2"/>
+      <c r="M34" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="M34" s="2">
-        <v>0</v>
-      </c>
-      <c r="N34" s="9">
-        <v>90</v>
-      </c>
-      <c r="O34" t="s">
-        <v>182</v>
-      </c>
-      <c r="P34">
-        <f>VLOOKUP(B34,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>0</v>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
+        <v>90</v>
+      </c>
+      <c r="P34" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -3250,21 +2772,18 @@
       <c r="K35" s="2">
         <v>0</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="L35" s="2"/>
+      <c r="M35" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="M35" s="2">
-        <v>0</v>
-      </c>
-      <c r="N35" s="9">
-        <v>90</v>
-      </c>
-      <c r="O35" t="s">
-        <v>182</v>
-      </c>
-      <c r="P35" t="e">
-        <f>VLOOKUP(B35,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="9">
+        <v>90</v>
+      </c>
+      <c r="P35" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -3301,21 +2820,18 @@
       <c r="K36" s="2">
         <v>45</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" s="2"/>
+      <c r="M36" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M36" s="2">
-        <v>0</v>
-      </c>
-      <c r="N36" s="9">
-        <v>90</v>
-      </c>
-      <c r="O36" t="s">
-        <v>182</v>
-      </c>
-      <c r="P36">
-        <f>VLOOKUP(B36,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>159</v>
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="9">
+        <v>90</v>
+      </c>
+      <c r="P36" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -3352,21 +2868,18 @@
       <c r="K37" s="2">
         <v>45</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" s="2"/>
+      <c r="M37" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M37" s="2">
-        <v>0</v>
-      </c>
-      <c r="N37" s="9">
-        <v>90</v>
-      </c>
-      <c r="O37" t="s">
-        <v>182</v>
-      </c>
-      <c r="P37" t="e">
-        <f>VLOOKUP(B37,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" s="9">
+        <v>90</v>
+      </c>
+      <c r="P37" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -3403,21 +2916,18 @@
       <c r="K38" s="2">
         <v>0</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" s="2"/>
+      <c r="M38" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M38" s="2">
-        <v>0</v>
-      </c>
-      <c r="N38" s="9">
-        <v>90</v>
-      </c>
-      <c r="O38" t="s">
-        <v>181</v>
-      </c>
-      <c r="P38" t="e">
-        <f>VLOOKUP(B38,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" s="9">
+        <v>90</v>
+      </c>
+      <c r="P38" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -3454,21 +2964,18 @@
       <c r="K39" s="2">
         <v>0</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L39" s="2"/>
+      <c r="M39" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="M39" s="2">
-        <v>0</v>
-      </c>
-      <c r="N39" s="9">
-        <v>90</v>
-      </c>
-      <c r="O39" t="s">
-        <v>181</v>
-      </c>
-      <c r="P39" t="e">
-        <f>VLOOKUP(B39,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="9">
+        <v>90</v>
+      </c>
+      <c r="P39" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -3505,21 +3012,18 @@
       <c r="K40" s="2">
         <v>0</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L40" s="2"/>
+      <c r="M40" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="M40" s="2">
-        <v>0</v>
-      </c>
-      <c r="N40" s="9">
-        <v>90</v>
-      </c>
-      <c r="O40" t="s">
-        <v>182</v>
-      </c>
-      <c r="P40">
-        <f>VLOOKUP(B40,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>2418</v>
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="9">
+        <v>90</v>
+      </c>
+      <c r="P40" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -3556,21 +3060,18 @@
       <c r="K41" s="2">
         <v>45</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="L41" s="2"/>
+      <c r="M41" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="M41" s="2">
-        <v>0</v>
-      </c>
-      <c r="N41" s="9">
-        <v>90</v>
-      </c>
-      <c r="O41" t="s">
-        <v>182</v>
-      </c>
-      <c r="P41" t="e">
-        <f>VLOOKUP(B41,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="9">
+        <v>90</v>
+      </c>
+      <c r="P41" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -3607,21 +3108,18 @@
       <c r="K42" s="2">
         <v>0</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L42" s="2"/>
+      <c r="M42" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M42" s="7" t="s">
+      <c r="N42" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="N42" s="9">
-        <v>90</v>
-      </c>
-      <c r="O42" t="s">
-        <v>181</v>
-      </c>
-      <c r="P42" t="e">
-        <f>VLOOKUP(B42,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="O42" s="9">
+        <v>90</v>
+      </c>
+      <c r="P42" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -3658,21 +3156,18 @@
       <c r="K43" s="2">
         <v>0</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L43" s="2"/>
+      <c r="M43" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M43" s="7" t="s">
+      <c r="N43" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="N43" s="9">
-        <v>90</v>
-      </c>
-      <c r="O43" t="s">
-        <v>181</v>
-      </c>
-      <c r="P43" t="e">
-        <f>VLOOKUP(B43,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="O43" s="9">
+        <v>90</v>
+      </c>
+      <c r="P43" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -3709,21 +3204,18 @@
       <c r="K44" s="2">
         <v>0</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="L44" s="2"/>
+      <c r="M44" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M44" s="2">
-        <v>0</v>
-      </c>
-      <c r="N44" s="9">
-        <v>90</v>
-      </c>
-      <c r="O44" t="s">
-        <v>181</v>
-      </c>
-      <c r="P44" t="e">
-        <f>VLOOKUP(B44,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" s="9">
+        <v>90</v>
+      </c>
+      <c r="P44" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -3760,21 +3252,18 @@
       <c r="K45" s="2">
         <v>0</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L45" s="2"/>
+      <c r="M45" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M45" s="2">
-        <v>0</v>
-      </c>
-      <c r="N45" s="9">
-        <v>90</v>
-      </c>
-      <c r="O45" t="s">
-        <v>181</v>
-      </c>
-      <c r="P45" t="e">
-        <f>VLOOKUP(B45,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N45" s="2">
+        <v>0</v>
+      </c>
+      <c r="O45" s="9">
+        <v>90</v>
+      </c>
+      <c r="P45" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -3811,21 +3300,18 @@
       <c r="K46" s="2">
         <v>50</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="L46" s="2"/>
+      <c r="M46" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="M46" s="2">
-        <v>0</v>
-      </c>
-      <c r="N46" s="9">
-        <v>90</v>
-      </c>
-      <c r="O46" t="s">
-        <v>182</v>
-      </c>
-      <c r="P46" t="e">
-        <f>VLOOKUP(B46,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="O46" s="9">
+        <v>90</v>
+      </c>
+      <c r="P46" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -3862,21 +3348,18 @@
       <c r="K47" s="2">
         <v>0</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="L47" s="2"/>
+      <c r="M47" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M47" s="2">
-        <v>0</v>
-      </c>
-      <c r="N47" s="9">
-        <v>90</v>
-      </c>
-      <c r="O47" t="s">
-        <v>181</v>
-      </c>
-      <c r="P47" t="e">
-        <f>VLOOKUP(B47,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N47" s="2">
+        <v>0</v>
+      </c>
+      <c r="O47" s="9">
+        <v>90</v>
+      </c>
+      <c r="P47" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -3913,21 +3396,18 @@
       <c r="K48" s="2">
         <v>0</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="L48" s="2"/>
+      <c r="M48" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="M48" s="7" t="s">
+      <c r="N48" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="N48" s="9">
-        <v>90</v>
-      </c>
-      <c r="O48" t="s">
-        <v>181</v>
-      </c>
-      <c r="P48" t="e">
-        <f>VLOOKUP(B48,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="O48" s="9">
+        <v>90</v>
+      </c>
+      <c r="P48" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -3964,21 +3444,18 @@
       <c r="K49" s="2">
         <v>0</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="L49" s="2"/>
+      <c r="M49" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M49" s="7" t="s">
+      <c r="N49" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="N49" s="9">
-        <v>90</v>
-      </c>
-      <c r="O49" t="s">
-        <v>181</v>
-      </c>
-      <c r="P49" t="e">
-        <f>VLOOKUP(B49,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="O49" s="9">
+        <v>90</v>
+      </c>
+      <c r="P49" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -4015,21 +3492,18 @@
       <c r="K50" s="2">
         <v>0</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="L50" s="2"/>
+      <c r="M50" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M50" s="7" t="s">
+      <c r="N50" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="N50" s="9">
-        <v>90</v>
-      </c>
-      <c r="O50" t="s">
-        <v>181</v>
-      </c>
-      <c r="P50" t="e">
-        <f>VLOOKUP(B50,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="O50" s="9">
+        <v>90</v>
+      </c>
+      <c r="P50" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -4066,21 +3540,18 @@
       <c r="K51" s="2">
         <v>0</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L51" s="2"/>
+      <c r="M51" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="M51" s="7" t="s">
+      <c r="N51" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="N51" s="9">
-        <v>90</v>
-      </c>
-      <c r="O51" t="s">
-        <v>181</v>
-      </c>
-      <c r="P51" t="e">
-        <f>VLOOKUP(B51,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="O51" s="9">
+        <v>90</v>
+      </c>
+      <c r="P51" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -4117,21 +3588,18 @@
       <c r="K52" s="2">
         <v>0</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="L52" s="2"/>
+      <c r="M52" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M52" s="7" t="s">
+      <c r="N52" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="N52" s="9">
-        <v>90</v>
-      </c>
-      <c r="O52" t="s">
-        <v>182</v>
-      </c>
-      <c r="P52" t="e">
-        <f>VLOOKUP(B52,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="O52" s="9">
+        <v>90</v>
+      </c>
+      <c r="P52" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -4168,21 +3636,18 @@
       <c r="K53" s="2">
         <v>0</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="L53" s="2"/>
+      <c r="M53" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M53" s="7" t="s">
+      <c r="N53" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="N53" s="9">
-        <v>90</v>
-      </c>
-      <c r="O53" t="s">
-        <v>182</v>
-      </c>
-      <c r="P53" t="e">
-        <f>VLOOKUP(B53,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="O53" s="9">
+        <v>90</v>
+      </c>
+      <c r="P53" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -4219,21 +3684,18 @@
       <c r="K54" s="2">
         <v>0</v>
       </c>
-      <c r="L54" s="2" t="s">
+      <c r="L54" s="2"/>
+      <c r="M54" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M54" s="7" t="s">
+      <c r="N54" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="N54" s="9">
-        <v>90</v>
-      </c>
-      <c r="O54" t="s">
-        <v>182</v>
-      </c>
-      <c r="P54" t="e">
-        <f>VLOOKUP(B54,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="O54" s="9">
+        <v>90</v>
+      </c>
+      <c r="P54" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -4270,21 +3732,18 @@
       <c r="K55" s="2">
         <v>0</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="L55" s="2"/>
+      <c r="M55" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M55" s="7" t="s">
+      <c r="N55" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="N55" s="9">
-        <v>90</v>
-      </c>
-      <c r="O55" t="s">
-        <v>182</v>
-      </c>
-      <c r="P55" t="e">
-        <f>VLOOKUP(B55,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="O55" s="9">
+        <v>90</v>
+      </c>
+      <c r="P55" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -4321,21 +3780,18 @@
       <c r="K56" s="2">
         <v>0</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="L56" s="2"/>
+      <c r="M56" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M56" s="7" t="s">
+      <c r="N56" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="N56" s="9">
-        <v>90</v>
-      </c>
-      <c r="O56" t="s">
-        <v>181</v>
-      </c>
-      <c r="P56" t="e">
-        <f>VLOOKUP(B56,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="O56" s="9">
+        <v>90</v>
+      </c>
+      <c r="P56" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -4372,21 +3828,18 @@
       <c r="K57" s="2">
         <v>0</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="L57" s="2"/>
+      <c r="M57" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M57" s="7" t="s">
+      <c r="N57" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="N57" s="9">
-        <v>90</v>
-      </c>
-      <c r="O57" t="s">
-        <v>182</v>
-      </c>
-      <c r="P57">
-        <f>VLOOKUP(B57,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>0</v>
+      <c r="O57" s="9">
+        <v>90</v>
+      </c>
+      <c r="P57" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -4423,21 +3876,18 @@
       <c r="K58" s="2">
         <v>0</v>
       </c>
-      <c r="L58" s="2" t="s">
+      <c r="L58" s="2"/>
+      <c r="M58" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="M58" s="2">
-        <v>0</v>
-      </c>
-      <c r="N58" s="9">
-        <v>90</v>
-      </c>
-      <c r="O58" t="s">
-        <v>182</v>
-      </c>
-      <c r="P58">
-        <f>VLOOKUP(B58,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>2547</v>
+      <c r="N58" s="2">
+        <v>0</v>
+      </c>
+      <c r="O58" s="9">
+        <v>90</v>
+      </c>
+      <c r="P58" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -4474,21 +3924,18 @@
       <c r="K59" s="2">
         <v>0</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="L59" s="2"/>
+      <c r="M59" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M59" s="2">
-        <v>0</v>
-      </c>
-      <c r="N59" s="9">
-        <v>90</v>
-      </c>
-      <c r="O59" t="s">
-        <v>181</v>
-      </c>
-      <c r="P59">
-        <f>VLOOKUP(B59,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>0</v>
+      <c r="N59" s="2">
+        <v>0</v>
+      </c>
+      <c r="O59" s="9">
+        <v>90</v>
+      </c>
+      <c r="P59" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
@@ -4525,21 +3972,18 @@
       <c r="K60" s="2">
         <v>0</v>
       </c>
-      <c r="L60" s="2" t="s">
+      <c r="L60" s="2"/>
+      <c r="M60" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M60" s="2">
-        <v>0</v>
-      </c>
-      <c r="N60" s="9">
-        <v>90</v>
-      </c>
-      <c r="O60" t="s">
-        <v>181</v>
-      </c>
-      <c r="P60">
-        <f>VLOOKUP(B60,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>409</v>
+      <c r="N60" s="2">
+        <v>0</v>
+      </c>
+      <c r="O60" s="9">
+        <v>90</v>
+      </c>
+      <c r="P60" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -4576,21 +4020,18 @@
       <c r="K61" s="2">
         <v>0</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="L61" s="2"/>
+      <c r="M61" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M61" s="2">
-        <v>0</v>
-      </c>
-      <c r="N61" s="9">
-        <v>90</v>
-      </c>
-      <c r="O61" t="s">
-        <v>181</v>
-      </c>
-      <c r="P61">
-        <f>VLOOKUP(B61,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>119</v>
+      <c r="N61" s="2">
+        <v>0</v>
+      </c>
+      <c r="O61" s="9">
+        <v>90</v>
+      </c>
+      <c r="P61" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -4627,22 +4068,136 @@
       <c r="K62" s="2">
         <v>0</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="L62" s="2"/>
+      <c r="M62" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="M62" s="2">
-        <v>0</v>
-      </c>
-      <c r="N62" s="9">
-        <v>90</v>
-      </c>
-      <c r="O62" t="s">
-        <v>181</v>
-      </c>
-      <c r="P62">
-        <f>VLOOKUP(B62,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>142</v>
-      </c>
+      <c r="N62" s="2">
+        <v>0</v>
+      </c>
+      <c r="O62" s="9">
+        <v>90</v>
+      </c>
+      <c r="P62" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="15">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K63" s="14">
+        <v>2</v>
+      </c>
+      <c r="L63" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="15">
+        <v>9</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K64" s="14">
+        <v>2</v>
+      </c>
+      <c r="L64" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="15">
+        <v>8</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K65" s="14">
+        <v>2</v>
+      </c>
+      <c r="L65" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\SIM-Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18736A09-AEB3-4D3C-9409-F0508D256552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF35416-DC02-4FE9-8A56-AB83D51DDC48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69"/>
+      <selection activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4095,10 +4095,10 @@
       <c r="D63" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="15">
+      <c r="E63" s="15">
         <v>9.8000000000000007</v>
       </c>
+      <c r="F63" s="2"/>
       <c r="G63" s="7" t="s">
         <v>149</v>
       </c>
@@ -4134,10 +4134,10 @@
       <c r="D64" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="15">
+      <c r="E64" s="15">
         <v>9</v>
       </c>
+      <c r="F64" s="2"/>
       <c r="G64" s="7" t="s">
         <v>149</v>
       </c>
@@ -4173,10 +4173,10 @@
       <c r="D65" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="15">
+      <c r="E65" s="15">
         <v>8</v>
       </c>
+      <c r="F65" s="2"/>
       <c r="G65" s="7" t="s">
         <v>149</v>
       </c>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\SIM-Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF35416-DC02-4FE9-8A56-AB83D51DDC48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44D349E2-BE00-4D57-A3EF-B85024DF8B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\SIM-Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44D349E2-BE00-4D57-A3EF-B85024DF8B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999F2E08-1511-4058-8052-AF9E78FD7E5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,9 +588,6 @@
     <t>Part-Type</t>
   </si>
   <si>
-    <t>2300</t>
-  </si>
-  <si>
     <t>DC</t>
   </si>
   <si>
@@ -628,6 +625,9 @@
   </si>
   <si>
     <t>5698002300-0</t>
+  </si>
+  <si>
+    <t>2300-0</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1139,7 +1139,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>165</v>
@@ -4084,16 +4084,16 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B63" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="C63" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="E63" s="15">
         <v>9.8000000000000007</v>
@@ -4103,13 +4103,13 @@
         <v>149</v>
       </c>
       <c r="H63" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I63" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="I63" s="7" t="s">
+      <c r="J63" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="K63" s="14">
         <v>2</v>
@@ -4123,16 +4123,16 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E64" s="15">
         <v>9</v>
@@ -4142,13 +4142,13 @@
         <v>149</v>
       </c>
       <c r="H64" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I64" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="J64" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="K64" s="14">
         <v>2</v>
@@ -4162,16 +4162,16 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E65" s="15">
         <v>8</v>
@@ -4181,13 +4181,13 @@
         <v>149</v>
       </c>
       <c r="H65" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I65" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="I65" s="7" t="s">
+      <c r="J65" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="K65" s="14">
         <v>2</v>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\SIM-Stock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999F2E08-1511-4058-8052-AF9E78FD7E5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F25E061-A300-464F-85DE-05882AB39D8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -714,7 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -741,6 +741,7 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1080,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1092,7 +1093,7 @@
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.44140625" customWidth="1"/>
@@ -2642,7 +2643,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -2690,7 +2691,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -2737,8 +2738,9 @@
       <c r="P34" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q34" s="16"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -2786,7 +2788,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
@@ -2834,7 +2836,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
@@ -2882,7 +2884,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,7 +2932,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
@@ -2978,7 +2980,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -3026,7 +3028,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
@@ -3074,7 +3076,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
@@ -3122,7 +3124,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -3170,7 +3172,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
@@ -3218,7 +3220,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>51</v>
       </c>
@@ -3266,7 +3268,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
@@ -3314,7 +3316,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
@@ -3362,7 +3364,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>54</v>
       </c>
@@ -4000,7 +4002,7 @@
         <v>156</v>
       </c>
       <c r="E61" s="4">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F61" s="2">
         <v>0</v>
@@ -4048,7 +4050,7 @@
         <v>156</v>
       </c>
       <c r="E62" s="4">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F62" s="2">
         <v>0</v>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F25E061-A300-464F-85DE-05882AB39D8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0C515D-2BB2-4A45-A9AC-4DEC42D51876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="197">
   <si>
     <t>Component description</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>561151-0231</t>
-  </si>
-  <si>
-    <t>5611510802A</t>
   </si>
   <si>
     <t>5611512130</t>
@@ -1083,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1107,10 +1104,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1128,7 +1125,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -1140,19 +1137,19 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1160,13 +1157,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" s="2">
         <v>171.9</v>
@@ -1175,23 +1172,23 @@
         <v>0.88200000000000001</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -1200,7 +1197,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1208,13 +1205,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" s="2">
         <v>171.9</v>
@@ -1223,23 +1220,23 @@
         <v>0.88200000000000001</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -1248,7 +1245,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -1256,13 +1253,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" s="2">
         <v>287.70999999999998</v>
@@ -1271,23 +1268,23 @@
         <v>0.77</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -1296,7 +1293,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -1304,13 +1301,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E5" s="2">
         <v>288.70999999999998</v>
@@ -1319,23 +1316,23 @@
         <v>0.77</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1344,7 +1341,7 @@
         <v>90</v>
       </c>
       <c r="P5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1352,13 +1349,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" s="2">
         <v>175.87</v>
@@ -1367,23 +1364,23 @@
         <v>0.89249999999999996</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -1392,7 +1389,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -1400,13 +1397,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" s="2">
         <v>173.08</v>
@@ -1415,23 +1412,23 @@
         <v>0.85575000000000001</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -1440,7 +1437,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1448,13 +1445,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" s="2">
         <v>186.46</v>
@@ -1463,23 +1460,23 @@
         <v>0.90300000000000002</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
@@ -1488,7 +1485,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1496,13 +1493,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2">
         <v>183.71</v>
@@ -1511,23 +1508,23 @@
         <v>0.86099999999999999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -1536,7 +1533,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1544,13 +1541,13 @@
         <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2">
         <v>185.4</v>
@@ -1559,23 +1556,23 @@
         <v>0.88200000000000001</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
@@ -1584,7 +1581,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1592,13 +1589,13 @@
         <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E11" s="2">
         <v>182.69</v>
@@ -1607,23 +1604,23 @@
         <v>0.86099999999999999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
@@ -1632,7 +1629,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1640,13 +1637,13 @@
         <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E12" s="2">
         <v>182.59</v>
@@ -1655,23 +1652,23 @@
         <v>0.86099999999999999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
@@ -1680,7 +1677,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1688,13 +1685,13 @@
         <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" s="2">
         <v>196.04</v>
@@ -1703,23 +1700,23 @@
         <v>1.008</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -1728,7 +1725,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1736,13 +1733,13 @@
         <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2">
         <v>196.15</v>
@@ -1751,23 +1748,23 @@
         <v>1.008</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -1776,7 +1773,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1784,13 +1781,13 @@
         <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" s="2">
         <v>182.93</v>
@@ -1799,23 +1796,23 @@
         <v>0.99750000000000005</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
@@ -1824,7 +1821,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1832,13 +1829,13 @@
         <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E16" s="2">
         <v>181.43</v>
@@ -1847,23 +1844,23 @@
         <v>0.98699999999999999</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
@@ -1872,7 +1869,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -1880,13 +1877,13 @@
         <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E17" s="2">
         <v>181.55</v>
@@ -1895,23 +1892,23 @@
         <v>0.99750000000000005</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
@@ -1920,7 +1917,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -1928,13 +1925,13 @@
         <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E18" s="2">
         <v>130.41</v>
@@ -1943,23 +1940,23 @@
         <v>0.41265000000000002</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K18" s="2">
         <v>30</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
@@ -1968,7 +1965,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -1976,13 +1973,13 @@
         <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1991,32 +1988,32 @@
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O19" s="9">
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -2024,13 +2021,13 @@
         <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E20" s="2">
         <v>131.61000000000001</v>
@@ -2039,32 +2036,32 @@
         <v>0.42</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K20" s="2">
         <v>30</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N20" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="N20" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="O20" s="9">
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -2072,13 +2069,13 @@
         <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E21" s="2">
         <v>142.44999999999999</v>
@@ -2087,32 +2084,32 @@
         <v>0.48299999999999998</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K21" s="2">
         <v>30</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O21" s="9">
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -2120,13 +2117,13 @@
         <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22" s="2">
         <v>143.21</v>
@@ -2135,32 +2132,32 @@
         <v>0.441</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K22" s="2">
         <v>30</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O22" s="9">
         <v>90</v>
       </c>
       <c r="P22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -2168,13 +2165,13 @@
         <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E23" s="2">
         <v>158.21</v>
@@ -2183,23 +2180,23 @@
         <v>0.441</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K23" s="2">
         <v>30</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N23" s="2">
         <v>0</v>
@@ -2208,7 +2205,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -2216,13 +2213,13 @@
         <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E24" s="2">
         <v>142.44999999999999</v>
@@ -2231,23 +2228,23 @@
         <v>0.48299999999999998</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K24" s="2">
         <v>30</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N24" s="2">
         <v>0</v>
@@ -2256,7 +2253,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -2264,13 +2261,13 @@
         <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E25" s="2">
         <v>148.30000000000001</v>
@@ -2279,32 +2276,32 @@
         <v>0.441</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K25" s="2">
         <v>30</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="N25" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="O25" s="9">
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -2312,13 +2309,13 @@
         <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E26" s="2">
         <v>167.91</v>
@@ -2327,32 +2324,32 @@
         <v>0.441</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K26" s="2">
         <v>30</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N26" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="N26" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="O26" s="9">
         <v>90</v>
       </c>
       <c r="P26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2360,13 +2357,13 @@
         <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E27" s="2">
         <v>157.30000000000001</v>
@@ -2375,32 +2372,32 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K27" s="2">
         <v>30</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O27" s="9">
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -2408,13 +2405,13 @@
         <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -2423,46 +2420,46 @@
         <v>0.41265000000000002</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K28" s="2">
         <v>0</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O28" s="9">
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E29" s="2">
         <v>148.51</v>
@@ -2471,46 +2468,46 @@
         <v>0.441</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K29" s="2">
         <v>30</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O29" s="9">
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -2519,46 +2516,46 @@
         <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N30" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="N30" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="O30" s="9">
         <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E31" s="2">
         <v>136.13999999999999</v>
@@ -2567,46 +2564,46 @@
         <v>0.41265000000000002</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K31" s="2">
         <v>30</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O31" s="9">
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E32" s="2">
         <v>142.78</v>
@@ -2615,23 +2612,23 @@
         <v>0.36749999999999999</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K32" s="2">
         <v>45</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N32" s="2">
         <v>0</v>
@@ -2640,21 +2637,21 @@
         <v>90</v>
       </c>
       <c r="P32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E33" s="2">
         <v>195.22</v>
@@ -2663,23 +2660,23 @@
         <v>0.71399999999999997</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K33" s="2">
         <v>45</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N33" s="2">
         <v>0</v>
@@ -2688,21 +2685,21 @@
         <v>90</v>
       </c>
       <c r="P33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E34" s="2">
         <v>194.71</v>
@@ -2711,23 +2708,23 @@
         <v>0.78</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K34" s="2">
         <v>0</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N34" s="2">
         <v>0</v>
@@ -2736,22 +2733,22 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q34" s="16"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E35" s="2">
         <v>184.56</v>
@@ -2760,23 +2757,23 @@
         <v>0.66</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K35" s="2">
         <v>0</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N35" s="2">
         <v>0</v>
@@ -2785,21 +2782,21 @@
         <v>90</v>
       </c>
       <c r="P35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E36" s="2">
         <v>208.99</v>
@@ -2808,23 +2805,23 @@
         <v>0.74550000000000005</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K36" s="2">
         <v>45</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N36" s="2">
         <v>0</v>
@@ -2833,21 +2830,21 @@
         <v>90</v>
       </c>
       <c r="P36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E37" s="2">
         <v>198.13</v>
@@ -2856,23 +2853,23 @@
         <v>0.74760000000000004</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K37" s="2">
         <v>45</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N37" s="2">
         <v>0</v>
@@ -2881,21 +2878,21 @@
         <v>90</v>
       </c>
       <c r="P37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E38" s="2">
         <v>312.70999999999998</v>
@@ -2904,23 +2901,23 @@
         <v>0.59</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K38" s="2">
         <v>0</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N38" s="2">
         <v>0</v>
@@ -2929,21 +2926,21 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E39" s="2">
         <v>356.71</v>
@@ -2952,23 +2949,23 @@
         <v>0.76</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N39" s="2">
         <v>0</v>
@@ -2977,21 +2974,21 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E40" s="2">
         <v>218.45</v>
@@ -3000,23 +2997,23 @@
         <v>0.89</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K40" s="2">
         <v>0</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N40" s="2">
         <v>0</v>
@@ -3025,21 +3022,21 @@
         <v>90</v>
       </c>
       <c r="P40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E41" s="2">
         <v>165.02</v>
@@ -3048,23 +3045,23 @@
         <v>0.47249999999999998</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K41" s="2">
         <v>45</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N41" s="2">
         <v>0</v>
@@ -3073,21 +3070,21 @@
         <v>90</v>
       </c>
       <c r="P41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E42" s="2">
         <v>141.81</v>
@@ -3096,46 +3093,46 @@
         <v>0.65100000000000002</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N42" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="N42" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="O42" s="9">
         <v>90</v>
       </c>
       <c r="P42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E43" s="2">
         <v>195.25</v>
@@ -3144,46 +3141,46 @@
         <v>0.66149999999999998</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N43" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="N43" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="O43" s="9">
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E44" s="2">
         <v>142.66999999999999</v>
@@ -3192,23 +3189,23 @@
         <v>0.66149999999999998</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K44" s="2">
         <v>0</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N44" s="2">
         <v>0</v>
@@ -3217,21 +3214,21 @@
         <v>90</v>
       </c>
       <c r="P44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E45" s="2">
         <v>133.06</v>
@@ -3240,23 +3237,23 @@
         <v>0.54600000000000004</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K45" s="2">
         <v>0</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N45" s="2">
         <v>0</v>
@@ -3265,21 +3262,21 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E46" s="2">
         <v>223.71</v>
@@ -3288,23 +3285,23 @@
         <v>0.64049999999999996</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K46" s="2">
         <v>50</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N46" s="2">
         <v>0</v>
@@ -3313,21 +3310,21 @@
         <v>90</v>
       </c>
       <c r="P46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E47" s="2">
         <v>137.82</v>
@@ -3336,23 +3333,23 @@
         <v>0.56699999999999995</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K47" s="2">
         <v>0</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N47" s="2">
         <v>0</v>
@@ -3361,21 +3358,21 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E48" s="2">
         <v>148.88999999999999</v>
@@ -3384,46 +3381,46 @@
         <v>0.53549999999999998</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K48" s="2">
         <v>0</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O48" s="9">
         <v>90</v>
       </c>
       <c r="P48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E49" s="2">
         <v>164.93</v>
@@ -3432,46 +3429,46 @@
         <v>0.77070000000000005</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K49" s="2">
         <v>0</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N49" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="N49" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="O49" s="9">
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E50" s="2">
         <v>166.24</v>
@@ -3480,46 +3477,46 @@
         <v>0.79064999999999996</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K50" s="2">
         <v>0</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N50" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="N50" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="O50" s="9">
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E51" s="2">
         <v>177.41</v>
@@ -3528,46 +3525,46 @@
         <v>0.53549999999999998</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K51" s="2">
         <v>0</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O51" s="9">
         <v>90</v>
       </c>
       <c r="P51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" s="3">
         <v>5400</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E52" s="4">
         <v>0</v>
@@ -3576,46 +3573,46 @@
         <v>0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K52" s="2">
         <v>0</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N52" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="N52" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="O52" s="9">
         <v>90</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" s="3">
         <v>5501</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E53" s="4">
         <v>0</v>
@@ -3624,46 +3621,46 @@
         <v>0</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K53" s="2">
         <v>0</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N53" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="N53" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="O53" s="9">
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E54" s="4">
         <v>0</v>
@@ -3672,46 +3669,46 @@
         <v>0</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K54" s="2">
         <v>0</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N54" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="N54" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="O54" s="9">
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E55" s="4">
         <v>0</v>
@@ -3720,46 +3717,46 @@
         <v>0</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K55" s="2">
         <v>0</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N55" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="N55" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="O55" s="9">
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E56" s="4">
         <v>0</v>
@@ -3768,46 +3765,46 @@
         <v>0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K56" s="2">
         <v>0</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N56" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="N56" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="O56" s="9">
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E57" s="4">
         <v>0</v>
@@ -3816,46 +3813,46 @@
         <v>0</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K57" s="2">
         <v>0</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="9">
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E58" s="4">
         <v>0</v>
@@ -3864,23 +3861,23 @@
         <v>0</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K58" s="2">
         <v>0</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N58" s="2">
         <v>0</v>
@@ -3889,21 +3886,21 @@
         <v>90</v>
       </c>
       <c r="P58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E59" s="4">
         <v>0</v>
@@ -3912,23 +3909,23 @@
         <v>0</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K59" s="2">
         <v>0</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N59" s="2">
         <v>0</v>
@@ -3937,21 +3934,21 @@
         <v>90</v>
       </c>
       <c r="P59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E60" s="4">
         <v>0</v>
@@ -3960,23 +3957,23 @@
         <v>0</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K60" s="2">
         <v>0</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N60" s="2">
         <v>0</v>
@@ -3985,21 +3982,21 @@
         <v>90</v>
       </c>
       <c r="P60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E61" s="4">
         <v>150</v>
@@ -4008,23 +4005,23 @@
         <v>0</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K61" s="2">
         <v>0</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N61" s="2">
         <v>0</v>
@@ -4033,21 +4030,21 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E62" s="4">
         <v>150</v>
@@ -4056,23 +4053,23 @@
         <v>0</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K62" s="2">
         <v>0</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N62" s="2">
         <v>0</v>
@@ -4081,37 +4078,37 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>197</v>
-      </c>
       <c r="C63" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E63" s="15">
         <v>9.8000000000000007</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H63" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="I63" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="I63" s="7" t="s">
+      <c r="J63" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="K63" s="14">
         <v>2</v>
@@ -4125,32 +4122,32 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E64" s="15">
         <v>9</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H64" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="I64" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="J64" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="K64" s="14">
         <v>2</v>
@@ -4164,32 +4161,32 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E65" s="15">
         <v>8</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H65" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="I65" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="I65" s="7" t="s">
+      <c r="J65" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="K65" s="14">
         <v>2</v>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0C515D-2BB2-4A45-A9AC-4DEC42D51876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C60705B-4F7C-4F8E-B9F3-CDFE4774E143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1080,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3806,9 +3806,7 @@
       <c r="D57" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E57" s="4">
-        <v>0</v>
-      </c>
+      <c r="E57" s="4"/>
       <c r="F57" s="2">
         <v>0</v>
       </c>
@@ -3855,7 +3853,7 @@
         <v>140</v>
       </c>
       <c r="E58" s="4">
-        <v>0</v>
+        <v>136.63999999999999</v>
       </c>
       <c r="F58" s="2">
         <v>0</v>
@@ -3903,7 +3901,7 @@
         <v>140</v>
       </c>
       <c r="E59" s="4">
-        <v>0</v>
+        <v>88.41</v>
       </c>
       <c r="F59" s="2">
         <v>0</v>
@@ -3951,7 +3949,7 @@
         <v>140</v>
       </c>
       <c r="E60" s="4">
-        <v>0</v>
+        <v>94.54</v>
       </c>
       <c r="F60" s="2">
         <v>0</v>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C60705B-4F7C-4F8E-B9F3-CDFE4774E143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8759B23-E268-406A-87E4-3F23B6BC6D93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="213">
   <si>
     <t>Component description</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Ingot-Typ</t>
   </si>
   <si>
-    <t>SCK-Cost</t>
-  </si>
-  <si>
     <t>5611011632A</t>
   </si>
   <si>
@@ -625,6 +622,57 @@
   </si>
   <si>
     <t>2300-0</t>
+  </si>
+  <si>
+    <t>T46496AA</t>
+  </si>
+  <si>
+    <t>CYLINDER HEAD (R) ,P558 V6</t>
+  </si>
+  <si>
+    <t>P558 V6</t>
+  </si>
+  <si>
+    <t>T46497AA</t>
+  </si>
+  <si>
+    <t>CYLINDER HEAD (R) ,P558 V8</t>
+  </si>
+  <si>
+    <t>P558 V8</t>
+  </si>
+  <si>
+    <t>T46511AB</t>
+  </si>
+  <si>
+    <t>T46515AB</t>
+  </si>
+  <si>
+    <t>6496</t>
+  </si>
+  <si>
+    <t>6497</t>
+  </si>
+  <si>
+    <t>6511</t>
+  </si>
+  <si>
+    <t>6515</t>
+  </si>
+  <si>
+    <t>SSP</t>
+  </si>
+  <si>
+    <t>ADC-13</t>
+  </si>
+  <si>
+    <t>ADC-15</t>
+  </si>
+  <si>
+    <t>ADC-16</t>
+  </si>
+  <si>
+    <t>MC-Cost</t>
   </si>
 </sst>
 </file>
@@ -664,12 +712,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -711,7 +765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -739,6 +793,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1078,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63:M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1104,10 +1159,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1125,7 +1180,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -1134,36 +1189,36 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>7</v>
+        <v>212</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="2">
         <v>171.9</v>
@@ -1172,23 +1227,23 @@
         <v>0.88200000000000001</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -1197,21 +1252,21 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E3" s="2">
         <v>171.9</v>
@@ -1220,23 +1275,23 @@
         <v>0.88200000000000001</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -1245,21 +1300,21 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4" s="2">
         <v>287.70999999999998</v>
@@ -1268,23 +1323,23 @@
         <v>0.77</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -1293,21 +1348,21 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" s="2">
         <v>288.70999999999998</v>
@@ -1316,23 +1371,23 @@
         <v>0.77</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1341,21 +1396,21 @@
         <v>90</v>
       </c>
       <c r="P5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6" s="2">
         <v>175.87</v>
@@ -1364,23 +1419,23 @@
         <v>0.89249999999999996</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -1389,21 +1444,21 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" s="2">
         <v>173.08</v>
@@ -1412,23 +1467,23 @@
         <v>0.85575000000000001</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -1437,21 +1492,21 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="2">
         <v>186.46</v>
@@ -1460,23 +1515,23 @@
         <v>0.90300000000000002</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
@@ -1485,21 +1540,21 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2">
         <v>183.71</v>
@@ -1508,23 +1563,23 @@
         <v>0.86099999999999999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -1533,21 +1588,21 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2">
         <v>185.4</v>
@@ -1556,23 +1611,23 @@
         <v>0.88200000000000001</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
@@ -1581,21 +1636,21 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11" s="2">
         <v>182.69</v>
@@ -1604,23 +1659,23 @@
         <v>0.86099999999999999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
@@ -1629,21 +1684,21 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" s="2">
         <v>182.59</v>
@@ -1652,23 +1707,23 @@
         <v>0.86099999999999999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
@@ -1677,21 +1732,21 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E13" s="2">
         <v>196.04</v>
@@ -1700,23 +1755,23 @@
         <v>1.008</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -1725,21 +1780,21 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E14" s="2">
         <v>196.15</v>
@@ -1748,23 +1803,23 @@
         <v>1.008</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -1773,21 +1828,21 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" s="2">
         <v>182.93</v>
@@ -1796,23 +1851,23 @@
         <v>0.99750000000000005</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
@@ -1821,21 +1876,21 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E16" s="2">
         <v>181.43</v>
@@ -1844,23 +1899,23 @@
         <v>0.98699999999999999</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
@@ -1869,21 +1924,21 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E17" s="2">
         <v>181.55</v>
@@ -1892,23 +1947,23 @@
         <v>0.99750000000000005</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
@@ -1917,21 +1972,21 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" s="2">
         <v>130.41</v>
@@ -1940,23 +1995,23 @@
         <v>0.41265000000000002</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K18" s="2">
         <v>30</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
@@ -1965,21 +2020,21 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1988,46 +2043,46 @@
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O19" s="9">
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E20" s="2">
         <v>131.61000000000001</v>
@@ -2036,46 +2091,46 @@
         <v>0.42</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K20" s="2">
         <v>30</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N20" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="N20" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="O20" s="9">
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E21" s="2">
         <v>142.44999999999999</v>
@@ -2084,46 +2139,46 @@
         <v>0.48299999999999998</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K21" s="2">
         <v>30</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O21" s="9">
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22" s="2">
         <v>143.21</v>
@@ -2132,46 +2187,46 @@
         <v>0.441</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K22" s="2">
         <v>30</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O22" s="9">
         <v>90</v>
       </c>
       <c r="P22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E23" s="2">
         <v>158.21</v>
@@ -2180,23 +2235,23 @@
         <v>0.441</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K23" s="2">
         <v>30</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N23" s="2">
         <v>0</v>
@@ -2205,21 +2260,21 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E24" s="2">
         <v>142.44999999999999</v>
@@ -2228,23 +2283,23 @@
         <v>0.48299999999999998</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K24" s="2">
         <v>30</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N24" s="2">
         <v>0</v>
@@ -2253,21 +2308,21 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E25" s="2">
         <v>148.30000000000001</v>
@@ -2276,46 +2331,46 @@
         <v>0.441</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K25" s="2">
         <v>30</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="N25" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="O25" s="9">
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26" s="2">
         <v>167.91</v>
@@ -2324,46 +2379,46 @@
         <v>0.441</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K26" s="2">
         <v>30</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="N26" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="O26" s="9">
         <v>90</v>
       </c>
       <c r="P26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E27" s="2">
         <v>157.30000000000001</v>
@@ -2372,46 +2427,46 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K27" s="2">
         <v>30</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O27" s="9">
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -2420,46 +2475,46 @@
         <v>0.41265000000000002</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K28" s="2">
         <v>0</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O28" s="9">
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E29" s="2">
         <v>148.51</v>
@@ -2468,46 +2523,46 @@
         <v>0.441</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K29" s="2">
         <v>30</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O29" s="9">
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -2516,46 +2571,46 @@
         <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N30" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="N30" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="O30" s="9">
         <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E31" s="2">
         <v>136.13999999999999</v>
@@ -2564,46 +2619,46 @@
         <v>0.41265000000000002</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K31" s="2">
         <v>30</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O31" s="9">
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E32" s="2">
         <v>142.78</v>
@@ -2612,23 +2667,23 @@
         <v>0.36749999999999999</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K32" s="2">
         <v>45</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N32" s="2">
         <v>0</v>
@@ -2637,21 +2692,21 @@
         <v>90</v>
       </c>
       <c r="P32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E33" s="2">
         <v>195.22</v>
@@ -2660,23 +2715,23 @@
         <v>0.71399999999999997</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K33" s="2">
         <v>45</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N33" s="2">
         <v>0</v>
@@ -2685,21 +2740,21 @@
         <v>90</v>
       </c>
       <c r="P33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E34" s="2">
         <v>194.71</v>
@@ -2708,23 +2763,23 @@
         <v>0.78</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K34" s="2">
         <v>0</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N34" s="2">
         <v>0</v>
@@ -2733,22 +2788,22 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q34" s="16"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E35" s="2">
         <v>184.56</v>
@@ -2757,23 +2812,23 @@
         <v>0.66</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K35" s="2">
         <v>0</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N35" s="2">
         <v>0</v>
@@ -2782,21 +2837,21 @@
         <v>90</v>
       </c>
       <c r="P35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E36" s="2">
         <v>208.99</v>
@@ -2805,23 +2860,23 @@
         <v>0.74550000000000005</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K36" s="2">
         <v>45</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N36" s="2">
         <v>0</v>
@@ -2830,21 +2885,21 @@
         <v>90</v>
       </c>
       <c r="P36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E37" s="2">
         <v>198.13</v>
@@ -2853,23 +2908,23 @@
         <v>0.74760000000000004</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K37" s="2">
         <v>45</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N37" s="2">
         <v>0</v>
@@ -2878,21 +2933,21 @@
         <v>90</v>
       </c>
       <c r="P37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E38" s="2">
         <v>312.70999999999998</v>
@@ -2901,23 +2956,23 @@
         <v>0.59</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K38" s="2">
         <v>0</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N38" s="2">
         <v>0</v>
@@ -2926,21 +2981,21 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E39" s="2">
         <v>356.71</v>
@@ -2949,23 +3004,23 @@
         <v>0.76</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N39" s="2">
         <v>0</v>
@@ -2974,21 +3029,21 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E40" s="2">
         <v>218.45</v>
@@ -2997,23 +3052,23 @@
         <v>0.89</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K40" s="2">
         <v>0</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N40" s="2">
         <v>0</v>
@@ -3022,21 +3077,21 @@
         <v>90</v>
       </c>
       <c r="P40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E41" s="2">
         <v>165.02</v>
@@ -3045,23 +3100,23 @@
         <v>0.47249999999999998</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K41" s="2">
         <v>45</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N41" s="2">
         <v>0</v>
@@ -3070,21 +3125,21 @@
         <v>90</v>
       </c>
       <c r="P41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E42" s="2">
         <v>141.81</v>
@@ -3093,46 +3148,46 @@
         <v>0.65100000000000002</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N42" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="N42" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="O42" s="9">
         <v>90</v>
       </c>
       <c r="P42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E43" s="2">
         <v>195.25</v>
@@ -3141,46 +3196,46 @@
         <v>0.66149999999999998</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N43" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="N43" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="O43" s="9">
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E44" s="2">
         <v>142.66999999999999</v>
@@ -3189,23 +3244,23 @@
         <v>0.66149999999999998</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K44" s="2">
         <v>0</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N44" s="2">
         <v>0</v>
@@ -3214,21 +3269,21 @@
         <v>90</v>
       </c>
       <c r="P44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E45" s="2">
         <v>133.06</v>
@@ -3237,23 +3292,23 @@
         <v>0.54600000000000004</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K45" s="2">
         <v>0</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N45" s="2">
         <v>0</v>
@@ -3262,21 +3317,21 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E46" s="2">
         <v>223.71</v>
@@ -3285,23 +3340,23 @@
         <v>0.64049999999999996</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K46" s="2">
         <v>50</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N46" s="2">
         <v>0</v>
@@ -3310,21 +3365,21 @@
         <v>90</v>
       </c>
       <c r="P46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E47" s="2">
         <v>137.82</v>
@@ -3333,23 +3388,23 @@
         <v>0.56699999999999995</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K47" s="2">
         <v>0</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N47" s="2">
         <v>0</v>
@@ -3358,21 +3413,21 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E48" s="2">
         <v>148.88999999999999</v>
@@ -3381,46 +3436,46 @@
         <v>0.53549999999999998</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K48" s="2">
         <v>0</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O48" s="9">
         <v>90</v>
       </c>
       <c r="P48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E49" s="2">
         <v>164.93</v>
@@ -3429,46 +3484,46 @@
         <v>0.77070000000000005</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K49" s="2">
         <v>0</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N49" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="N49" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="O49" s="9">
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E50" s="2">
         <v>166.24</v>
@@ -3477,46 +3532,46 @@
         <v>0.79064999999999996</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K50" s="2">
         <v>0</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N50" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="N50" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="O50" s="9">
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E51" s="2">
         <v>177.41</v>
@@ -3525,46 +3580,46 @@
         <v>0.53549999999999998</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K51" s="2">
         <v>0</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O51" s="9">
         <v>90</v>
       </c>
       <c r="P51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="3">
         <v>5400</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E52" s="4">
         <v>0</v>
@@ -3573,46 +3628,46 @@
         <v>0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K52" s="2">
         <v>0</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N52" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="N52" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="O52" s="9">
         <v>90</v>
       </c>
       <c r="P52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="3">
         <v>5501</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E53" s="4">
         <v>0</v>
@@ -3621,46 +3676,46 @@
         <v>0</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K53" s="2">
         <v>0</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N53" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="N53" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="O53" s="9">
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E54" s="4">
         <v>0</v>
@@ -3669,46 +3724,46 @@
         <v>0</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K54" s="2">
         <v>0</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N54" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="N54" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="O54" s="9">
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E55" s="4">
         <v>0</v>
@@ -3717,46 +3772,46 @@
         <v>0</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K55" s="2">
         <v>0</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N55" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="N55" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="O55" s="9">
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E56" s="4">
         <v>0</v>
@@ -3765,92 +3820,92 @@
         <v>0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K56" s="2">
         <v>0</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N56" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="N56" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="O56" s="9">
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="2">
         <v>0</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K57" s="2">
         <v>0</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="9">
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E58" s="4">
         <v>136.63999999999999</v>
@@ -3859,23 +3914,23 @@
         <v>0</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K58" s="2">
         <v>0</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N58" s="2">
         <v>0</v>
@@ -3884,21 +3939,21 @@
         <v>90</v>
       </c>
       <c r="P58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E59" s="4">
         <v>88.41</v>
@@ -3907,23 +3962,23 @@
         <v>0</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K59" s="2">
         <v>0</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N59" s="2">
         <v>0</v>
@@ -3932,21 +3987,21 @@
         <v>90</v>
       </c>
       <c r="P59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E60" s="4">
         <v>94.54</v>
@@ -3955,23 +4010,23 @@
         <v>0</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K60" s="2">
         <v>0</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N60" s="2">
         <v>0</v>
@@ -3980,21 +4035,21 @@
         <v>90</v>
       </c>
       <c r="P60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E61" s="4">
         <v>150</v>
@@ -4003,23 +4058,23 @@
         <v>0</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K61" s="2">
         <v>0</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N61" s="2">
         <v>0</v>
@@ -4028,21 +4083,21 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E62" s="4">
         <v>150</v>
@@ -4051,23 +4106,23 @@
         <v>0</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K62" s="2">
         <v>0</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N62" s="2">
         <v>0</v>
@@ -4076,125 +4131,273 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E63" s="17">
+        <v>542.89</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H63" s="11"/>
+      <c r="I63" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K63" s="2">
+        <v>180</v>
+      </c>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="9"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E64" s="17">
+        <v>542.89</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H64" s="11"/>
+      <c r="I64" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K64" s="2">
+        <v>180</v>
+      </c>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="9"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E65" s="17">
+        <v>430.95</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H65" s="11"/>
+      <c r="I65" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K65" s="2">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="9"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E66" s="17">
+        <v>430.95</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H66" s="11"/>
+      <c r="I66" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K66" s="2">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="9"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B67" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C63" s="7" t="s">
+      <c r="C67" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E67" s="15">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K67" s="14">
+        <v>2</v>
+      </c>
+      <c r="L67" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D68" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E68" s="15">
+        <v>9</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H68" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E63" s="15">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H63" s="13" t="s">
+      <c r="I68" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="I63" s="7" t="s">
+      <c r="J68" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="J63" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K63" s="14">
+      <c r="K68" s="14">
         <v>2</v>
       </c>
-      <c r="L63" s="14">
+      <c r="L68" s="14">
         <v>2.4</v>
       </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B69" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C69" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D69" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E69" s="15">
+        <v>8</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H69" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E64" s="15">
-        <v>9</v>
-      </c>
-      <c r="F64" s="2"/>
-      <c r="G64" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H64" s="13" t="s">
+      <c r="I69" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="J69" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="J64" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K64" s="14">
+      <c r="K69" s="14">
         <v>2</v>
       </c>
-      <c r="L64" s="14">
+      <c r="L69" s="14">
         <v>2.4</v>
       </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E65" s="15">
-        <v>8</v>
-      </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K65" s="14">
-        <v>2</v>
-      </c>
-      <c r="L65" s="14">
-        <v>2.4</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8759B23-E268-406A-87E4-3F23B6BC6D93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CA66C6-D19B-450F-9118-426F33B6C036}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DB!$A$1:$O$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DB!$A$1:$R$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="212">
   <si>
     <t>Component description</t>
   </si>
@@ -663,16 +666,13 @@
     <t>SSP</t>
   </si>
   <si>
-    <t>ADC-13</t>
-  </si>
-  <si>
-    <t>ADC-15</t>
-  </si>
-  <si>
-    <t>ADC-16</t>
-  </si>
-  <si>
     <t>MC-Cost</t>
+  </si>
+  <si>
+    <t>Prices-Q1</t>
+  </si>
+  <si>
+    <t>HDMC-Cost</t>
   </si>
 </sst>
 </file>
@@ -712,7 +712,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -722,6 +722,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,7 +771,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -794,6 +800,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -810,6 +821,3037 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="DB"/>
+      <sheetName val="ADC-12-OEM"/>
+      <sheetName val="ADC-12-OES"/>
+      <sheetName val="ADC-14"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>1632</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>CYLINDER BLOCK (F) RAW MATERIAL</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="E2">
+            <v>171.9</v>
+          </cell>
+          <cell r="F2">
+            <v>0.88200000000000001</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="I2">
+            <v>119.187228</v>
+          </cell>
+          <cell r="J2">
+            <v>139.19</v>
+          </cell>
+          <cell r="K2">
+            <v>171.9</v>
+          </cell>
+          <cell r="L2">
+            <v>32.71</v>
+          </cell>
+          <cell r="M2">
+            <v>139.19</v>
+          </cell>
+          <cell r="N2">
+            <v>77.430000000000007</v>
+          </cell>
+          <cell r="O2">
+            <v>184.90912307239998</v>
+          </cell>
+          <cell r="P2">
+            <v>13.009123072399973</v>
+          </cell>
+          <cell r="Q2">
+            <v>7.5678435557882326E-2</v>
+          </cell>
+          <cell r="R2">
+            <v>186.53</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>1732</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>CYLINDER BLOCK (R) RAW MATERIAL</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="E3">
+            <v>171.9</v>
+          </cell>
+          <cell r="F3">
+            <v>0.88200000000000001</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="I3">
+            <v>119.187228</v>
+          </cell>
+          <cell r="J3">
+            <v>139.19</v>
+          </cell>
+          <cell r="K3">
+            <v>171.9</v>
+          </cell>
+          <cell r="L3">
+            <v>32.71</v>
+          </cell>
+          <cell r="M3">
+            <v>139.19</v>
+          </cell>
+          <cell r="N3">
+            <v>77.430000000000007</v>
+          </cell>
+          <cell r="O3">
+            <v>184.90912307239998</v>
+          </cell>
+          <cell r="P3">
+            <v>13.009123072399973</v>
+          </cell>
+          <cell r="Q3">
+            <v>7.5678435557882326E-2</v>
+          </cell>
+          <cell r="R3">
+            <v>186.53</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>2532</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>CYLINDER BLOCK (F) RAW MAT'L</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>ADC-14 17CH</v>
+          </cell>
+          <cell r="E4">
+            <v>287.70999999999998</v>
+          </cell>
+          <cell r="F4">
+            <v>0.77</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H4" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="I4">
+            <v>118.12032950000001</v>
+          </cell>
+          <cell r="J4">
+            <v>138.12</v>
+          </cell>
+          <cell r="K4">
+            <v>287.70999999999998</v>
+          </cell>
+          <cell r="L4">
+            <v>32.71</v>
+          </cell>
+          <cell r="M4">
+            <v>254.99999999999997</v>
+          </cell>
+          <cell r="N4">
+            <v>77.430000000000007</v>
+          </cell>
+          <cell r="O4">
+            <v>215.50989999579994</v>
+          </cell>
+          <cell r="P4">
+            <v>-72.200100004200038</v>
+          </cell>
+          <cell r="Q4">
+            <v>0</v>
+          </cell>
+          <cell r="R4">
+            <v>215.51</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>2633</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>CYLINDER BLOCK (R) RAW MAT'L</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>ADC-14 17CH</v>
+          </cell>
+          <cell r="E5">
+            <v>288.70999999999998</v>
+          </cell>
+          <cell r="F5">
+            <v>0.77</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="I5">
+            <v>118.58132800000001</v>
+          </cell>
+          <cell r="J5">
+            <v>138.58000000000001</v>
+          </cell>
+          <cell r="K5">
+            <v>288.70999999999998</v>
+          </cell>
+          <cell r="L5">
+            <v>32.71</v>
+          </cell>
+          <cell r="M5">
+            <v>255.99999999999997</v>
+          </cell>
+          <cell r="N5">
+            <v>77.430000000000007</v>
+          </cell>
+          <cell r="O5">
+            <v>216.50989999579994</v>
+          </cell>
+          <cell r="P5">
+            <v>-72.200100004200038</v>
+          </cell>
+          <cell r="Q5">
+            <v>0</v>
+          </cell>
+          <cell r="R5">
+            <v>216.51</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>9231</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>CYLINDER BLOCK(F)RAW MATERIAL</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="E6">
+            <v>175.87</v>
+          </cell>
+          <cell r="F6">
+            <v>0.89249999999999996</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H6" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="I6">
+            <v>123.16042099999999</v>
+          </cell>
+          <cell r="J6">
+            <v>143.16</v>
+          </cell>
+          <cell r="K6">
+            <v>175.87</v>
+          </cell>
+          <cell r="L6">
+            <v>32.71</v>
+          </cell>
+          <cell r="M6">
+            <v>143.16</v>
+          </cell>
+          <cell r="N6">
+            <v>77.430000000000007</v>
+          </cell>
+          <cell r="O6">
+            <v>189.03399358516668</v>
+          </cell>
+          <cell r="P6">
+            <v>13.163993585166679</v>
+          </cell>
+          <cell r="Q6">
+            <v>7.4850705550501384E-2</v>
+          </cell>
+          <cell r="R6">
+            <v>189.03</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>9330</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>CYLINDER BLOCK(R)RAW MATERIAL</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="E7">
+            <v>173.08</v>
+          </cell>
+          <cell r="F7">
+            <v>0.85575000000000001</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H7" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="I7">
+            <v>120.37486849999999</v>
+          </cell>
+          <cell r="J7">
+            <v>140.37</v>
+          </cell>
+          <cell r="K7">
+            <v>173.08</v>
+          </cell>
+          <cell r="L7">
+            <v>32.71</v>
+          </cell>
+          <cell r="M7">
+            <v>140.37</v>
+          </cell>
+          <cell r="N7">
+            <v>77.430000000000007</v>
+          </cell>
+          <cell r="O7">
+            <v>185.77938204686666</v>
+          </cell>
+          <cell r="P7">
+            <v>12.699382046866646</v>
+          </cell>
+          <cell r="Q7">
+            <v>7.3372902974732174E-2</v>
+          </cell>
+          <cell r="R7">
+            <v>187.8</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>1231</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>CYLINDER  BLOCK  (F)  RAW  MATERIAL</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="E8">
+            <v>186.46</v>
+          </cell>
+          <cell r="F8">
+            <v>0.90300000000000002</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H8" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="I8">
+            <v>133.754752</v>
+          </cell>
+          <cell r="J8">
+            <v>153.75</v>
+          </cell>
+          <cell r="K8">
+            <v>186.46</v>
+          </cell>
+          <cell r="L8">
+            <v>32.71</v>
+          </cell>
+          <cell r="M8">
+            <v>153.75</v>
+          </cell>
+          <cell r="N8">
+            <v>77.430000000000007</v>
+          </cell>
+          <cell r="O8">
+            <v>199.77886409793334</v>
+          </cell>
+          <cell r="P8">
+            <v>13.318864097933329</v>
+          </cell>
+          <cell r="Q8">
+            <v>7.1430141037934824E-2</v>
+          </cell>
+          <cell r="R8">
+            <v>199.78</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>1530</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>CYLINDER BLOCK (F) RAW MATERIAL</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="E9">
+            <v>183.71</v>
+          </cell>
+          <cell r="F9">
+            <v>0.86099999999999999</v>
+          </cell>
+          <cell r="G9" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H9" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="I9">
+            <v>130.996624</v>
+          </cell>
+          <cell r="J9">
+            <v>151</v>
+          </cell>
+          <cell r="K9">
+            <v>183.71</v>
+          </cell>
+          <cell r="L9">
+            <v>32.71</v>
+          </cell>
+          <cell r="M9">
+            <v>151</v>
+          </cell>
+          <cell r="N9">
+            <v>77.430000000000007</v>
+          </cell>
+          <cell r="O9">
+            <v>196.40938204686665</v>
+          </cell>
+          <cell r="P9">
+            <v>12.699382046866646</v>
+          </cell>
+          <cell r="Q9">
+            <v>6.9127331374811626E-2</v>
+          </cell>
+          <cell r="R9">
+            <v>196.41</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>1630</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>CYLINDER BLOCK (R) RAW MATERIAL</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="E10">
+            <v>185.4</v>
+          </cell>
+          <cell r="F10">
+            <v>0.88200000000000001</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H10" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="I10">
+            <v>132.69068800000002</v>
+          </cell>
+          <cell r="J10">
+            <v>152.69</v>
+          </cell>
+          <cell r="K10">
+            <v>185.4</v>
+          </cell>
+          <cell r="L10">
+            <v>32.71</v>
+          </cell>
+          <cell r="M10">
+            <v>152.69</v>
+          </cell>
+          <cell r="N10">
+            <v>77.430000000000007</v>
+          </cell>
+          <cell r="O10">
+            <v>198.40912307239998</v>
+          </cell>
+          <cell r="P10">
+            <v>13.009123072399973</v>
+          </cell>
+          <cell r="Q10">
+            <v>7.0167869861920029E-2</v>
+          </cell>
+          <cell r="R10">
+            <v>198.41</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>2731</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>CYLINDER BLOCK (F) RAW MATERIAL</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="E11">
+            <v>182.69</v>
+          </cell>
+          <cell r="F11">
+            <v>0.86099999999999999</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H11" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="I11">
+            <v>129.98475200000001</v>
+          </cell>
+          <cell r="J11">
+            <v>149.97999999999999</v>
+          </cell>
+          <cell r="K11">
+            <v>182.69</v>
+          </cell>
+          <cell r="L11">
+            <v>32.71</v>
+          </cell>
+          <cell r="M11">
+            <v>149.97999999999999</v>
+          </cell>
+          <cell r="N11">
+            <v>77.430000000000007</v>
+          </cell>
+          <cell r="O11">
+            <v>195.38938204686664</v>
+          </cell>
+          <cell r="P11">
+            <v>12.699382046866646</v>
+          </cell>
+          <cell r="Q11">
+            <v>6.9513285055923399E-2</v>
+          </cell>
+          <cell r="R11">
+            <v>195.39</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>2831</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>CYLINDER BLOCK (R) RAW MATERIAL</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="E12">
+            <v>182.59</v>
+          </cell>
+          <cell r="F12">
+            <v>0.86099999999999999</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H12" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="I12">
+            <v>129.88123999999999</v>
+          </cell>
+          <cell r="J12">
+            <v>149.88</v>
+          </cell>
+          <cell r="K12">
+            <v>182.59</v>
+          </cell>
+          <cell r="L12">
+            <v>32.71</v>
+          </cell>
+          <cell r="M12">
+            <v>149.88</v>
+          </cell>
+          <cell r="N12">
+            <v>77.430000000000007</v>
+          </cell>
+          <cell r="O12">
+            <v>195.28938204686665</v>
+          </cell>
+          <cell r="P12">
+            <v>12.699382046866646</v>
+          </cell>
+          <cell r="Q12">
+            <v>6.9551355752596772E-2</v>
+          </cell>
+          <cell r="R12">
+            <v>195.29</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>4333</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>CYLINDER BLOCK (F) RAW MATERIAL</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="E13">
+            <v>196.04</v>
+          </cell>
+          <cell r="F13">
+            <v>1.008</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="I13">
+            <v>143.33464000000001</v>
+          </cell>
+          <cell r="J13">
+            <v>163.33000000000001</v>
+          </cell>
+          <cell r="K13">
+            <v>196.04</v>
+          </cell>
+          <cell r="L13">
+            <v>32.71</v>
+          </cell>
+          <cell r="M13">
+            <v>163.32999999999998</v>
+          </cell>
+          <cell r="N13">
+            <v>77.430000000000007</v>
+          </cell>
+          <cell r="O13">
+            <v>210.90756922560001</v>
+          </cell>
+          <cell r="P13">
+            <v>14.867569225600022</v>
+          </cell>
+          <cell r="Q13">
+            <v>7.5839467586207007E-2</v>
+          </cell>
+          <cell r="R13">
+            <v>210.91</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>4433</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>CYLINDER BLOCK (R) RAW MATEIAL</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="E14">
+            <v>196.15</v>
+          </cell>
+          <cell r="F14">
+            <v>1.008</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="I14">
+            <v>143.44464000000002</v>
+          </cell>
+          <cell r="J14">
+            <v>163.44</v>
+          </cell>
+          <cell r="K14">
+            <v>196.15</v>
+          </cell>
+          <cell r="L14">
+            <v>32.71</v>
+          </cell>
+          <cell r="M14">
+            <v>163.44</v>
+          </cell>
+          <cell r="N14">
+            <v>77.430000000000007</v>
+          </cell>
+          <cell r="O14">
+            <v>211.01756922560003</v>
+          </cell>
+          <cell r="P14">
+            <v>14.867569225600022</v>
+          </cell>
+          <cell r="Q14">
+            <v>7.5796937168493603E-2</v>
+          </cell>
+          <cell r="R14">
+            <v>211.02</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>5130</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>CYLINDER BLOCK (F) RAW MATERIAL</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="E15">
+            <v>182.93</v>
+          </cell>
+          <cell r="F15">
+            <v>0.99750000000000005</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H15" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="I15">
+            <v>130.2235565</v>
+          </cell>
+          <cell r="J15">
+            <v>150.22</v>
+          </cell>
+          <cell r="K15">
+            <v>182.93</v>
+          </cell>
+          <cell r="L15">
+            <v>32.71</v>
+          </cell>
+          <cell r="M15">
+            <v>150.22</v>
+          </cell>
+          <cell r="N15">
+            <v>77.430000000000007</v>
+          </cell>
+          <cell r="O15">
+            <v>197.64269871283335</v>
+          </cell>
+          <cell r="P15">
+            <v>14.712698712833344</v>
+          </cell>
+          <cell r="Q15">
+            <v>8.0428025544379514E-2</v>
+          </cell>
+          <cell r="R15">
+            <v>197.64</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>5230</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>CYLINDER BLOCK (R) RAW MATERIAL</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="E16">
+            <v>181.43</v>
+          </cell>
+          <cell r="F16">
+            <v>0.98699999999999999</v>
+          </cell>
+          <cell r="G16" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H16" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="I16">
+            <v>128.722161</v>
+          </cell>
+          <cell r="J16">
+            <v>148.72</v>
+          </cell>
+          <cell r="K16">
+            <v>181.43</v>
+          </cell>
+          <cell r="L16">
+            <v>32.71</v>
+          </cell>
+          <cell r="M16">
+            <v>148.72</v>
+          </cell>
+          <cell r="N16">
+            <v>77.430000000000007</v>
+          </cell>
+          <cell r="O16">
+            <v>195.98782820006667</v>
+          </cell>
+          <cell r="P16">
+            <v>14.557828200066666</v>
+          </cell>
+          <cell r="Q16">
+            <v>8.0239366147090693E-2</v>
+          </cell>
+          <cell r="R16">
+            <v>195.99</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>5330</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>CYLINDER BLOCK (F) RAW MATERIAL</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="E17">
+            <v>181.55</v>
+          </cell>
+          <cell r="F17">
+            <v>0.99750000000000005</v>
+          </cell>
+          <cell r="G17" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H17" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="I17">
+            <v>128.83502199999998</v>
+          </cell>
+          <cell r="J17">
+            <v>148.84</v>
+          </cell>
+          <cell r="K17">
+            <v>181.55</v>
+          </cell>
+          <cell r="L17">
+            <v>32.71</v>
+          </cell>
+          <cell r="M17">
+            <v>148.84</v>
+          </cell>
+          <cell r="N17">
+            <v>77.430000000000007</v>
+          </cell>
+          <cell r="O17">
+            <v>196.26269871283336</v>
+          </cell>
+          <cell r="P17">
+            <v>14.712698712833344</v>
+          </cell>
+          <cell r="Q17">
+            <v>8.1039376000183655E-2</v>
+          </cell>
+          <cell r="R17">
+            <v>196.26</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>2001</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>CYLINDER HEAD (R)</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>15 CH</v>
+          </cell>
+          <cell r="E18">
+            <v>130.41</v>
+          </cell>
+          <cell r="F18">
+            <v>0.41265000000000002</v>
+          </cell>
+          <cell r="G18" t="str">
+            <v>MC-OES</v>
+          </cell>
+          <cell r="H18" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I18">
+            <v>77.704985720250008</v>
+          </cell>
+          <cell r="J18">
+            <v>97.7</v>
+          </cell>
+          <cell r="K18">
+            <v>130.41</v>
+          </cell>
+          <cell r="L18">
+            <v>32.71</v>
+          </cell>
+          <cell r="M18">
+            <v>97.699999999999989</v>
+          </cell>
+          <cell r="N18">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O18">
+            <v>136.44994999789998</v>
+          </cell>
+          <cell r="P18">
+            <v>6.0399499978999813</v>
+          </cell>
+          <cell r="Q18">
+            <v>4.6315083183037967E-2</v>
+          </cell>
+          <cell r="R18">
+            <v>137.19999999999999</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>2902</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>CYLINDER HEAD (R)</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>15 CH</v>
+          </cell>
+          <cell r="E19">
+            <v>131.61000000000001</v>
+          </cell>
+          <cell r="F19">
+            <v>0.42</v>
+          </cell>
+          <cell r="G19" t="str">
+            <v>MC-OES</v>
+          </cell>
+          <cell r="H19" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I19">
+            <v>78.902516700000007</v>
+          </cell>
+          <cell r="J19">
+            <v>98.9</v>
+          </cell>
+          <cell r="K19">
+            <v>131.61000000000001</v>
+          </cell>
+          <cell r="L19">
+            <v>32.71</v>
+          </cell>
+          <cell r="M19">
+            <v>98.9</v>
+          </cell>
+          <cell r="N19">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O19">
+            <v>137.80482051066667</v>
+          </cell>
+          <cell r="P19">
+            <v>6.1948205106666592</v>
+          </cell>
+          <cell r="Q19">
+            <v>4.7069527472583077E-2</v>
+          </cell>
+          <cell r="R19">
+            <v>137.80000000000001</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>3102</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>CYLINDER HEAD (R)</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>15 CH</v>
+          </cell>
+          <cell r="E20">
+            <v>142.44999999999999</v>
+          </cell>
+          <cell r="F20">
+            <v>0.48299999999999998</v>
+          </cell>
+          <cell r="G20" t="str">
+            <v>MC-OES</v>
+          </cell>
+          <cell r="H20" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I20">
+            <v>89.73931795499999</v>
+          </cell>
+          <cell r="J20">
+            <v>109.74</v>
+          </cell>
+          <cell r="K20">
+            <v>142.44999999999999</v>
+          </cell>
+          <cell r="L20">
+            <v>32.71</v>
+          </cell>
+          <cell r="M20">
+            <v>109.73999999999998</v>
+          </cell>
+          <cell r="N20">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O20">
+            <v>149.57404358726666</v>
+          </cell>
+          <cell r="P20">
+            <v>7.1240435872666694</v>
+          </cell>
+          <cell r="Q20">
+            <v>5.0010835993448015E-2</v>
+          </cell>
+          <cell r="R20">
+            <v>149.57</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>5402</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>CYLINDER HEAD (R)</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>15 CH</v>
+          </cell>
+          <cell r="E21">
+            <v>143.21</v>
+          </cell>
+          <cell r="F21">
+            <v>0.441</v>
+          </cell>
+          <cell r="G21" t="str">
+            <v>MC-OES</v>
+          </cell>
+          <cell r="H21" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I21">
+            <v>90.5</v>
+          </cell>
+          <cell r="J21">
+            <v>110.5</v>
+          </cell>
+          <cell r="K21">
+            <v>143.21</v>
+          </cell>
+          <cell r="L21">
+            <v>32.71</v>
+          </cell>
+          <cell r="M21">
+            <v>110.5</v>
+          </cell>
+          <cell r="N21">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O21">
+            <v>149.71456153619997</v>
+          </cell>
+          <cell r="P21">
+            <v>6.504561536199958</v>
+          </cell>
+          <cell r="Q21">
+            <v>4.5419743985754886E-2</v>
+          </cell>
+          <cell r="R21">
+            <v>149.71</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>6803</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>CYLINDER HEAD (R)</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>17 CH</v>
+          </cell>
+          <cell r="E22">
+            <v>158.21</v>
+          </cell>
+          <cell r="F22">
+            <v>0.441</v>
+          </cell>
+          <cell r="G22" t="str">
+            <v>MC-OES</v>
+          </cell>
+          <cell r="H22" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I22">
+            <v>105.5</v>
+          </cell>
+          <cell r="J22">
+            <v>125.5</v>
+          </cell>
+          <cell r="K22">
+            <v>158.21</v>
+          </cell>
+          <cell r="L22">
+            <v>32.71</v>
+          </cell>
+          <cell r="M22">
+            <v>125.5</v>
+          </cell>
+          <cell r="N22">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O22">
+            <v>164.71456153619997</v>
+          </cell>
+          <cell r="P22">
+            <v>6.504561536199958</v>
+          </cell>
+          <cell r="Q22">
+            <v>4.1113466507805813E-2</v>
+          </cell>
+          <cell r="R22">
+            <v>164.71</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>7702</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>CYLINDER HEAD (R)</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>15 CH</v>
+          </cell>
+          <cell r="E23">
+            <v>142.44999999999999</v>
+          </cell>
+          <cell r="F23">
+            <v>0.48299999999999998</v>
+          </cell>
+          <cell r="G23" t="str">
+            <v>MC-OES</v>
+          </cell>
+          <cell r="H23" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I23">
+            <v>89.73931795499999</v>
+          </cell>
+          <cell r="J23">
+            <v>109.74</v>
+          </cell>
+          <cell r="K23">
+            <v>142.44999999999999</v>
+          </cell>
+          <cell r="L23">
+            <v>32.71</v>
+          </cell>
+          <cell r="M23">
+            <v>109.73999999999998</v>
+          </cell>
+          <cell r="N23">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O23">
+            <v>149.57404358726666</v>
+          </cell>
+          <cell r="P23">
+            <v>7.1240435872666694</v>
+          </cell>
+          <cell r="Q23">
+            <v>5.0010835993448015E-2</v>
+          </cell>
+          <cell r="R23">
+            <v>149.57</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>7802</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>CYLINDER HEAD (R)</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>15 CH</v>
+          </cell>
+          <cell r="E24">
+            <v>148.30000000000001</v>
+          </cell>
+          <cell r="F24">
+            <v>0.441</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v>MC-OES</v>
+          </cell>
+          <cell r="H24" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I24">
+            <v>95.59</v>
+          </cell>
+          <cell r="J24">
+            <v>115.59</v>
+          </cell>
+          <cell r="K24">
+            <v>148.30000000000001</v>
+          </cell>
+          <cell r="L24">
+            <v>32.71</v>
+          </cell>
+          <cell r="M24">
+            <v>115.59</v>
+          </cell>
+          <cell r="N24">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O24">
+            <v>154.8045615362</v>
+          </cell>
+          <cell r="P24">
+            <v>6.5045615361999864</v>
+          </cell>
+          <cell r="Q24">
+            <v>4.3860833015509006E-2</v>
+          </cell>
+          <cell r="R24">
+            <v>154.80000000000001</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>9701</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>CYLINDER HEAD (R)</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>15 CH</v>
+          </cell>
+          <cell r="E25">
+            <v>167.91</v>
+          </cell>
+          <cell r="F25">
+            <v>0.441</v>
+          </cell>
+          <cell r="G25" t="str">
+            <v>MC-OES</v>
+          </cell>
+          <cell r="H25" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I25">
+            <v>115.2</v>
+          </cell>
+          <cell r="J25">
+            <v>135.19999999999999</v>
+          </cell>
+          <cell r="K25">
+            <v>167.91</v>
+          </cell>
+          <cell r="L25">
+            <v>32.71</v>
+          </cell>
+          <cell r="M25">
+            <v>135.19999999999999</v>
+          </cell>
+          <cell r="N25">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O25">
+            <v>174.41456153619995</v>
+          </cell>
+          <cell r="P25">
+            <v>6.504561536199958</v>
+          </cell>
+          <cell r="Q25">
+            <v>3.8738380895717697E-2</v>
+          </cell>
+          <cell r="R25">
+            <v>174.41</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>0201</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>CYLINDER HEAD (R)</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>15 CH</v>
+          </cell>
+          <cell r="E26">
+            <v>157.30000000000001</v>
+          </cell>
+          <cell r="F26">
+            <v>0.52500000000000002</v>
+          </cell>
+          <cell r="G26" t="str">
+            <v>MC-OES</v>
+          </cell>
+          <cell r="H26" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I26">
+            <v>104.593852125</v>
+          </cell>
+          <cell r="J26">
+            <v>124.59</v>
+          </cell>
+          <cell r="K26">
+            <v>157.30000000000001</v>
+          </cell>
+          <cell r="L26">
+            <v>32.71</v>
+          </cell>
+          <cell r="M26">
+            <v>124.59</v>
+          </cell>
+          <cell r="N26">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O26">
+            <v>165.04352563833334</v>
+          </cell>
+          <cell r="P26">
+            <v>7.743525638333324</v>
+          </cell>
+          <cell r="Q26">
+            <v>4.9227753581267152E-2</v>
+          </cell>
+          <cell r="R26">
+            <v>165.04</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>0802</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>CYLINDER HEAD (R)</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>15 CH</v>
+          </cell>
+          <cell r="E27">
+            <v>148.51</v>
+          </cell>
+          <cell r="F27">
+            <v>0.441</v>
+          </cell>
+          <cell r="G27" t="str">
+            <v>MC-OES</v>
+          </cell>
+          <cell r="H27" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I27">
+            <v>95.59</v>
+          </cell>
+          <cell r="J27">
+            <v>115.59</v>
+          </cell>
+          <cell r="K27">
+            <v>148.51</v>
+          </cell>
+          <cell r="L27">
+            <v>32.71</v>
+          </cell>
+          <cell r="M27">
+            <v>115.79999999999998</v>
+          </cell>
+          <cell r="N27">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O27">
+            <v>154.8045615362</v>
+          </cell>
+          <cell r="P27">
+            <v>6.2945615362000069</v>
+          </cell>
+          <cell r="Q27">
+            <v>4.2384765579422314E-2</v>
+          </cell>
+          <cell r="R27">
+            <v>154.55000000000001</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>2200</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>CYLINDER HEAD (R)</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>15 CH</v>
+          </cell>
+          <cell r="E28">
+            <v>136.13999999999999</v>
+          </cell>
+          <cell r="F28">
+            <v>0.41265000000000002</v>
+          </cell>
+          <cell r="G28" t="str">
+            <v>MC-OES</v>
+          </cell>
+          <cell r="H28" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I28">
+            <v>83.427485720250004</v>
+          </cell>
+          <cell r="J28">
+            <v>103.43</v>
+          </cell>
+          <cell r="K28">
+            <v>136.13999999999999</v>
+          </cell>
+          <cell r="L28">
+            <v>32.71</v>
+          </cell>
+          <cell r="M28">
+            <v>103.42999999999998</v>
+          </cell>
+          <cell r="N28">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O28">
+            <v>142.1799499979</v>
+          </cell>
+          <cell r="P28">
+            <v>6.0399499979000097</v>
+          </cell>
+          <cell r="Q28">
+            <v>4.4365726442632661E-2</v>
+          </cell>
+          <cell r="R28">
+            <v>142.93</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>4600</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>CYLINDER HEAD (R)</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>JK/Subros</v>
+          </cell>
+          <cell r="E29">
+            <v>142.78</v>
+          </cell>
+          <cell r="F29">
+            <v>0.36749999999999999</v>
+          </cell>
+          <cell r="G29" t="str">
+            <v>MC-OES</v>
+          </cell>
+          <cell r="H29" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I29">
+            <v>90.0651819375</v>
+          </cell>
+          <cell r="J29">
+            <v>110.07</v>
+          </cell>
+          <cell r="K29">
+            <v>142.78</v>
+          </cell>
+          <cell r="L29">
+            <v>32.71</v>
+          </cell>
+          <cell r="M29">
+            <v>110.07</v>
+          </cell>
+          <cell r="N29">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O29">
+            <v>148.2004679468333</v>
+          </cell>
+          <cell r="P29">
+            <v>5.4204679468332984</v>
+          </cell>
+          <cell r="Q29">
+            <v>3.7963776066909219E-2</v>
+          </cell>
+          <cell r="R29">
+            <v>156.51</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>2102</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>SHELL (R)</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>P2X</v>
+          </cell>
+          <cell r="E30">
+            <v>195.22</v>
+          </cell>
+          <cell r="F30">
+            <v>0.71399999999999997</v>
+          </cell>
+          <cell r="G30" t="str">
+            <v>MC-OES</v>
+          </cell>
+          <cell r="H30" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I30">
+            <v>142.51201838999998</v>
+          </cell>
+          <cell r="J30">
+            <v>162.51</v>
+          </cell>
+          <cell r="K30">
+            <v>195.22</v>
+          </cell>
+          <cell r="L30">
+            <v>32.71</v>
+          </cell>
+          <cell r="M30">
+            <v>162.51</v>
+          </cell>
+          <cell r="N30">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O30">
+            <v>205.75119486813333</v>
+          </cell>
+          <cell r="P30">
+            <v>10.531194868133326</v>
+          </cell>
+          <cell r="Q30">
+            <v>5.3945266202916335E-2</v>
+          </cell>
+          <cell r="R30">
+            <v>205.75</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>3000</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>SHELL (F)</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>Isuzu</v>
+          </cell>
+          <cell r="E31">
+            <v>194.71</v>
+          </cell>
+          <cell r="F31">
+            <v>0.78</v>
+          </cell>
+          <cell r="G31" t="str">
+            <v>MC-OEM</v>
+          </cell>
+          <cell r="H31" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I31">
+            <v>162</v>
+          </cell>
+          <cell r="J31">
+            <v>0</v>
+          </cell>
+          <cell r="K31">
+            <v>194.71</v>
+          </cell>
+          <cell r="L31">
+            <v>32.71</v>
+          </cell>
+          <cell r="M31">
+            <v>162</v>
+          </cell>
+          <cell r="N31">
+            <v>50</v>
+          </cell>
+          <cell r="O31">
+            <v>214.5703353152</v>
+          </cell>
+          <cell r="P31">
+            <v>19.86033531519999</v>
+          </cell>
+          <cell r="Q31">
+            <v>0.10199956507215854</v>
+          </cell>
+          <cell r="R31">
+            <v>211.22</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>3100</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>SHELL (R)</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>Isuzu</v>
+          </cell>
+          <cell r="E32">
+            <v>184.56</v>
+          </cell>
+          <cell r="F32">
+            <v>0.66</v>
+          </cell>
+          <cell r="G32" t="str">
+            <v>MC-OEM</v>
+          </cell>
+          <cell r="H32" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I32">
+            <v>151.85</v>
+          </cell>
+          <cell r="J32">
+            <v>0</v>
+          </cell>
+          <cell r="K32">
+            <v>184.56</v>
+          </cell>
+          <cell r="L32">
+            <v>32.71</v>
+          </cell>
+          <cell r="M32">
+            <v>151.85</v>
+          </cell>
+          <cell r="N32">
+            <v>50</v>
+          </cell>
+          <cell r="O32">
+            <v>200.10379813976664</v>
+          </cell>
+          <cell r="P32">
+            <v>15.543798139766636</v>
+          </cell>
+          <cell r="Q32">
+            <v>8.4220839508921952E-2</v>
+          </cell>
+          <cell r="R32">
+            <v>202.37</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>4900</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>SHELL (R)</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>MMC P CAR</v>
+          </cell>
+          <cell r="E33">
+            <v>208.99</v>
+          </cell>
+          <cell r="F33">
+            <v>0.74550000000000005</v>
+          </cell>
+          <cell r="G33" t="str">
+            <v>MC-OES</v>
+          </cell>
+          <cell r="H33" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I33">
+            <v>156.28302978749997</v>
+          </cell>
+          <cell r="J33">
+            <v>176.28</v>
+          </cell>
+          <cell r="K33">
+            <v>208.99</v>
+          </cell>
+          <cell r="L33">
+            <v>32.71</v>
+          </cell>
+          <cell r="M33">
+            <v>176.28</v>
+          </cell>
+          <cell r="N33">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O33">
+            <v>220.74081021683332</v>
+          </cell>
+          <cell r="P33">
+            <v>11.750810216833315</v>
+          </cell>
+          <cell r="Q33">
+            <v>5.6226662600283819E-2</v>
+          </cell>
+          <cell r="R33">
+            <v>219.99</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>5000</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>SHELL (R)</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>MMC P CAR</v>
+          </cell>
+          <cell r="E34">
+            <v>198.13</v>
+          </cell>
+          <cell r="F34">
+            <v>0.74760000000000004</v>
+          </cell>
+          <cell r="G34" t="str">
+            <v>MC-OES</v>
+          </cell>
+          <cell r="H34" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I34">
+            <v>145.42225046999999</v>
+          </cell>
+          <cell r="J34">
+            <v>165.42</v>
+          </cell>
+          <cell r="K34">
+            <v>198.13</v>
+          </cell>
+          <cell r="L34">
+            <v>32.71</v>
+          </cell>
+          <cell r="M34">
+            <v>165.42</v>
+          </cell>
+          <cell r="N34">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O34">
+            <v>209.1258064064333</v>
+          </cell>
+          <cell r="P34">
+            <v>10.995806406433303</v>
+          </cell>
+          <cell r="Q34">
+            <v>5.5497937750130233E-2</v>
+          </cell>
+          <cell r="R34">
+            <v>211.39</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>9907</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>CYLINDER BLOCK (R) RAW MAT'L</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>P552 2.7L</v>
+          </cell>
+          <cell r="E35">
+            <v>312.70999999999998</v>
+          </cell>
+          <cell r="F35">
+            <v>0.59</v>
+          </cell>
+          <cell r="G35" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H35" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I35">
+            <v>280</v>
+          </cell>
+          <cell r="J35">
+            <v>0</v>
+          </cell>
+          <cell r="K35">
+            <v>312.70999999999998</v>
+          </cell>
+          <cell r="L35">
+            <v>32.71</v>
+          </cell>
+          <cell r="M35">
+            <v>280</v>
+          </cell>
+          <cell r="N35">
+            <v>67</v>
+          </cell>
+          <cell r="O35">
+            <v>324.4801589702667</v>
+          </cell>
+          <cell r="P35">
+            <v>11.770158970266721</v>
+          </cell>
+          <cell r="Q35">
+            <v>3.7639215152271185E-2</v>
+          </cell>
+          <cell r="R35">
+            <v>324.48</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>9910</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>CYLINDER BLOCK (F) RAW MAT'L</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>P552 2.7L</v>
+          </cell>
+          <cell r="E36">
+            <v>356.71</v>
+          </cell>
+          <cell r="F36">
+            <v>0.76</v>
+          </cell>
+          <cell r="G36" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H36" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I36">
+            <v>324</v>
+          </cell>
+          <cell r="J36">
+            <v>0</v>
+          </cell>
+          <cell r="K36">
+            <v>356.71</v>
+          </cell>
+          <cell r="L36">
+            <v>32.71</v>
+          </cell>
+          <cell r="M36">
+            <v>324</v>
+          </cell>
+          <cell r="N36">
+            <v>67</v>
+          </cell>
+          <cell r="O36">
+            <v>368.63502948303335</v>
+          </cell>
+          <cell r="P36">
+            <v>11.92502948303337</v>
+          </cell>
+          <cell r="Q36">
+            <v>3.3430600440226992E-2</v>
+          </cell>
+          <cell r="R36">
+            <v>368.64</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>493C</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>CYLINDER HEAD (R)</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>VK56</v>
+          </cell>
+          <cell r="E37">
+            <v>218.45</v>
+          </cell>
+          <cell r="F37">
+            <v>0.89</v>
+          </cell>
+          <cell r="G37" t="str">
+            <v>MC-OEM</v>
+          </cell>
+          <cell r="H37" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I37">
+            <v>185.74</v>
+          </cell>
+          <cell r="J37">
+            <v>0</v>
+          </cell>
+          <cell r="K37">
+            <v>218.45</v>
+          </cell>
+          <cell r="L37">
+            <v>32.71</v>
+          </cell>
+          <cell r="M37">
+            <v>185.73999999999998</v>
+          </cell>
+          <cell r="N37">
+            <v>67.22</v>
+          </cell>
+          <cell r="O37">
+            <v>210.89847944663333</v>
+          </cell>
+          <cell r="P37">
+            <v>-7.5515205533666574</v>
+          </cell>
+          <cell r="Q37">
+            <v>-3.4568645243152472E-2</v>
+          </cell>
+          <cell r="R37">
+            <v>210.14</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>4946</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>CYLINDER HEAD (F)</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>JK</v>
+          </cell>
+          <cell r="E38">
+            <v>165.02</v>
+          </cell>
+          <cell r="F38">
+            <v>0.47249999999999998</v>
+          </cell>
+          <cell r="G38" t="str">
+            <v>MC-OES</v>
+          </cell>
+          <cell r="H38" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I38">
+            <v>112.30552856250002</v>
+          </cell>
+          <cell r="J38">
+            <v>132.31</v>
+          </cell>
+          <cell r="K38">
+            <v>165.02</v>
+          </cell>
+          <cell r="L38">
+            <v>32.71</v>
+          </cell>
+          <cell r="M38">
+            <v>132.31</v>
+          </cell>
+          <cell r="N38">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O38">
+            <v>171.98917307449997</v>
+          </cell>
+          <cell r="P38">
+            <v>6.9691730744999631</v>
+          </cell>
+          <cell r="Q38">
+            <v>4.2232293506847429E-2</v>
+          </cell>
+          <cell r="R38">
+            <v>177.27</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>8549</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>CYLINDER BLOCK (F) RAW MAT'L</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>S197 V6</v>
+          </cell>
+          <cell r="E39">
+            <v>141.81</v>
+          </cell>
+          <cell r="F39">
+            <v>0.65100000000000002</v>
+          </cell>
+          <cell r="G39" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H39" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I39">
+            <v>89.104631490000003</v>
+          </cell>
+          <cell r="J39">
+            <v>109.1</v>
+          </cell>
+          <cell r="K39">
+            <v>141.81</v>
+          </cell>
+          <cell r="L39">
+            <v>32.71</v>
+          </cell>
+          <cell r="M39">
+            <v>109.1</v>
+          </cell>
+          <cell r="N39">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O39">
+            <v>151.41197179153332</v>
+          </cell>
+          <cell r="P39">
+            <v>9.601971791533316</v>
+          </cell>
+          <cell r="Q39">
+            <v>6.771011770349987E-2</v>
+          </cell>
+          <cell r="R39">
+            <v>151.41</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>8551</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>CYLINDER BLOCK (F) RAW MAT'L</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>S197 V6</v>
+          </cell>
+          <cell r="E40">
+            <v>195.25</v>
+          </cell>
+          <cell r="F40">
+            <v>0.66149999999999998</v>
+          </cell>
+          <cell r="G40" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H40" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I40">
+            <v>106.54085859375002</v>
+          </cell>
+          <cell r="J40">
+            <v>126.54</v>
+          </cell>
+          <cell r="K40">
+            <v>195.25</v>
+          </cell>
+          <cell r="L40">
+            <v>32.71</v>
+          </cell>
+          <cell r="M40">
+            <v>162.54</v>
+          </cell>
+          <cell r="N40">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O40">
+            <v>205.00684230429999</v>
+          </cell>
+          <cell r="P40">
+            <v>9.7568423042999939</v>
+          </cell>
+          <cell r="Q40">
+            <v>4.9971023325480125E-2</v>
+          </cell>
+          <cell r="R40">
+            <v>205.01</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>9112</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>CYLINDER BLOCK (F) RAW MAT'L</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>KC83-U377</v>
+          </cell>
+          <cell r="E41">
+            <v>142.66999999999999</v>
+          </cell>
+          <cell r="F41">
+            <v>0.66149999999999998</v>
+          </cell>
+          <cell r="G41" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H41" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I41">
+            <v>89.958702487499991</v>
+          </cell>
+          <cell r="J41">
+            <v>109.96</v>
+          </cell>
+          <cell r="K41">
+            <v>142.66999999999999</v>
+          </cell>
+          <cell r="L41">
+            <v>32.71</v>
+          </cell>
+          <cell r="M41">
+            <v>109.95999999999998</v>
+          </cell>
+          <cell r="N41">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O41">
+            <v>152.42684230429998</v>
+          </cell>
+          <cell r="P41">
+            <v>9.7568423042999939</v>
+          </cell>
+          <cell r="Q41">
+            <v>6.8387483733791235E-2</v>
+          </cell>
+          <cell r="R41">
+            <v>159.22</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>9115</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>CYLINDER BLOCK (F) RAW MAT'L</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>KC83-U377</v>
+          </cell>
+          <cell r="E42">
+            <v>133.06</v>
+          </cell>
+          <cell r="F42">
+            <v>0.54600000000000004</v>
+          </cell>
+          <cell r="G42" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H42" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I42">
+            <v>80.347752450000002</v>
+          </cell>
+          <cell r="J42">
+            <v>100.35</v>
+          </cell>
+          <cell r="K42">
+            <v>133.06</v>
+          </cell>
+          <cell r="L42">
+            <v>32.71</v>
+          </cell>
+          <cell r="M42">
+            <v>100.35</v>
+          </cell>
+          <cell r="N42">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O42">
+            <v>141.11326666386665</v>
+          </cell>
+          <cell r="P42">
+            <v>8.0532666638666512</v>
+          </cell>
+          <cell r="Q42">
+            <v>6.0523573304273645E-2</v>
+          </cell>
+          <cell r="R42">
+            <v>141.11000000000001</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>9524</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>CYLINDER HEAD (R)</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>Proton</v>
+          </cell>
+          <cell r="E43">
+            <v>223.71</v>
+          </cell>
+          <cell r="F43">
+            <v>0.64049999999999996</v>
+          </cell>
+          <cell r="G43" t="str">
+            <v>MC-OES</v>
+          </cell>
+          <cell r="H43" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I43">
+            <v>171.00399566249999</v>
+          </cell>
+          <cell r="J43">
+            <v>191</v>
+          </cell>
+          <cell r="K43">
+            <v>223.71</v>
+          </cell>
+          <cell r="L43">
+            <v>32.71</v>
+          </cell>
+          <cell r="M43">
+            <v>191</v>
+          </cell>
+          <cell r="N43">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O43">
+            <v>233.15710127876665</v>
+          </cell>
+          <cell r="P43">
+            <v>9.4471012787666382</v>
+          </cell>
+          <cell r="Q43">
+            <v>4.222923105255303E-2</v>
+          </cell>
+          <cell r="R43">
+            <v>233.91</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>9706</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>CYLINDER BLOCK (F) RAW MAT'L</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>JK</v>
+          </cell>
+          <cell r="E44">
+            <v>137.82</v>
+          </cell>
+          <cell r="F44">
+            <v>0.56699999999999995</v>
+          </cell>
+          <cell r="G44" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H44" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I44">
+            <v>85.113386295000012</v>
+          </cell>
+          <cell r="J44">
+            <v>105.11</v>
+          </cell>
+          <cell r="K44">
+            <v>137.82</v>
+          </cell>
+          <cell r="L44">
+            <v>32.71</v>
+          </cell>
+          <cell r="M44">
+            <v>105.10999999999999</v>
+          </cell>
+          <cell r="N44">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O44">
+            <v>146.1830076894</v>
+          </cell>
+          <cell r="P44">
+            <v>8.3630076894000069</v>
+          </cell>
+          <cell r="Q44">
+            <v>6.0680653674357911E-2</v>
+          </cell>
+          <cell r="R44">
+            <v>146.18</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>9708</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>CYLINDER BLOCK (R) RAW MAT'L</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>JK</v>
+          </cell>
+          <cell r="E45">
+            <v>148.88999999999999</v>
+          </cell>
+          <cell r="F45">
+            <v>0.53549999999999998</v>
+          </cell>
+          <cell r="G45" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H45" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I45">
+            <v>96.179598899999974</v>
+          </cell>
+          <cell r="J45">
+            <v>116.18</v>
+          </cell>
+          <cell r="K45">
+            <v>148.88999999999999</v>
+          </cell>
+          <cell r="L45">
+            <v>32.71</v>
+          </cell>
+          <cell r="M45">
+            <v>116.17999999999998</v>
+          </cell>
+          <cell r="N45">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O45">
+            <v>156.78839615109999</v>
+          </cell>
+          <cell r="P45">
+            <v>7.8983961511000018</v>
+          </cell>
+          <cell r="Q45">
+            <v>5.3048533488481445E-2</v>
+          </cell>
+          <cell r="R45">
+            <v>156.79</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>0626</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>CYLINDER BLOCK (F) RAW MAT'L</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="E46">
+            <v>164.93</v>
+          </cell>
+          <cell r="F46">
+            <v>0.77070000000000005</v>
+          </cell>
+          <cell r="G46" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H46" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="I46">
+            <v>112.62530100000001</v>
+          </cell>
+          <cell r="J46">
+            <v>132.22</v>
+          </cell>
+          <cell r="K46">
+            <v>164.93</v>
+          </cell>
+          <cell r="L46">
+            <v>32.71</v>
+          </cell>
+          <cell r="M46">
+            <v>132.22</v>
+          </cell>
+          <cell r="N46">
+            <v>77.430000000000007</v>
+          </cell>
+          <cell r="O46">
+            <v>176.23554743196667</v>
+          </cell>
+          <cell r="P46">
+            <v>11.305547431966659</v>
+          </cell>
+          <cell r="Q46">
+            <v>6.8547550063461221E-2</v>
+          </cell>
+          <cell r="R46">
+            <v>176.56</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>0628</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>CYLINDER BLOCK (R) RAW MAT'L</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="E47">
+            <v>166.24</v>
+          </cell>
+          <cell r="F47">
+            <v>0.79064999999999996</v>
+          </cell>
+          <cell r="G47" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H47" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="I47">
+            <v>114.05002949999999</v>
+          </cell>
+          <cell r="J47">
+            <v>133.53</v>
+          </cell>
+          <cell r="K47">
+            <v>166.24</v>
+          </cell>
+          <cell r="L47">
+            <v>32.71</v>
+          </cell>
+          <cell r="M47">
+            <v>133.53</v>
+          </cell>
+          <cell r="N47">
+            <v>77.430000000000007</v>
+          </cell>
+          <cell r="O47">
+            <v>177.85528845750002</v>
+          </cell>
+          <cell r="P47">
+            <v>11.615288457500014</v>
+          </cell>
+          <cell r="Q47">
+            <v>6.9870599479668033E-2</v>
+          </cell>
+          <cell r="R47">
+            <v>178.1</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>5679</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>CYLINDER BLOCK (R) RAW MAT'L</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>Block R Subros</v>
+          </cell>
+          <cell r="E48">
+            <v>177.41</v>
+          </cell>
+          <cell r="F48">
+            <v>0.53549999999999998</v>
+          </cell>
+          <cell r="G48" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H48" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I48">
+            <v>94.707865612500001</v>
+          </cell>
+          <cell r="J48">
+            <v>114.71</v>
+          </cell>
+          <cell r="K48">
+            <v>177.41</v>
+          </cell>
+          <cell r="L48">
+            <v>32.71</v>
+          </cell>
+          <cell r="M48">
+            <v>144.69999999999999</v>
+          </cell>
+          <cell r="N48">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O48">
+            <v>185.3083961511</v>
+          </cell>
+          <cell r="P48">
+            <v>7.8983961511000018</v>
+          </cell>
+          <cell r="Q48">
+            <v>4.4520580300434036E-2</v>
+          </cell>
+          <cell r="R48">
+            <v>195.12</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>5400</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>CYLINDER HEAD (F)</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>10492 (KA)</v>
+          </cell>
+          <cell r="E49">
+            <v>0</v>
+          </cell>
+          <cell r="F49">
+            <v>0</v>
+          </cell>
+          <cell r="G49" t="str">
+            <v>MC-OES</v>
+          </cell>
+          <cell r="H49" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I49">
+            <v>134.66693441250001</v>
+          </cell>
+          <cell r="J49">
+            <v>154.66999999999999</v>
+          </cell>
+          <cell r="K49"/>
+          <cell r="L49"/>
+          <cell r="M49">
+            <v>154.66999999999999</v>
+          </cell>
+          <cell r="N49">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O49">
+            <v>194.34917307449999</v>
+          </cell>
+          <cell r="P49">
+            <v>0</v>
+          </cell>
+          <cell r="R49">
+            <v>194.35</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>5501</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>CYLINDER HEAD (R)</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>10492 (KA)</v>
+          </cell>
+          <cell r="E50">
+            <v>0</v>
+          </cell>
+          <cell r="F50">
+            <v>0</v>
+          </cell>
+          <cell r="G50" t="str">
+            <v>MC-OES</v>
+          </cell>
+          <cell r="H50" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I50">
+            <v>109.91018193750001</v>
+          </cell>
+          <cell r="J50">
+            <v>129.91</v>
+          </cell>
+          <cell r="K50"/>
+          <cell r="L50"/>
+          <cell r="M50">
+            <v>129.91</v>
+          </cell>
+          <cell r="N50">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O50">
+            <v>168.04046794683333</v>
+          </cell>
+          <cell r="P50">
+            <v>0</v>
+          </cell>
+          <cell r="R50">
+            <v>168.04</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>0702</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>CYLINDER HEAD (R)</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>15CH</v>
+          </cell>
+          <cell r="E51">
+            <v>0</v>
+          </cell>
+          <cell r="F51">
+            <v>0</v>
+          </cell>
+          <cell r="G51" t="str">
+            <v>MC-OES</v>
+          </cell>
+          <cell r="H51" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I51">
+            <v>95.59</v>
+          </cell>
+          <cell r="J51">
+            <v>115.59</v>
+          </cell>
+          <cell r="K51"/>
+          <cell r="L51"/>
+          <cell r="M51">
+            <v>115.59</v>
+          </cell>
+          <cell r="N51">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O51">
+            <v>154.49482051066667</v>
+          </cell>
+          <cell r="P51">
+            <v>0</v>
+          </cell>
+          <cell r="R51">
+            <v>154.49</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>0801</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>CYLINDER HEAD (R)</v>
+          </cell>
+          <cell r="D52" t="str">
+            <v>17CH</v>
+          </cell>
+          <cell r="E52">
+            <v>0</v>
+          </cell>
+          <cell r="F52">
+            <v>0</v>
+          </cell>
+          <cell r="G52" t="str">
+            <v>MC-OES</v>
+          </cell>
+          <cell r="H52" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I52">
+            <v>111.16999999999999</v>
+          </cell>
+          <cell r="J52">
+            <v>131.16999999999999</v>
+          </cell>
+          <cell r="K52"/>
+          <cell r="L52"/>
+          <cell r="M52">
+            <v>131.16999999999999</v>
+          </cell>
+          <cell r="N52">
+            <v>71.930000000000007</v>
+          </cell>
+          <cell r="O52">
+            <v>171.62352563833332</v>
+          </cell>
+          <cell r="P52">
+            <v>0</v>
+          </cell>
+          <cell r="R52">
+            <v>171.62</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>1771</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>CYLINDER HEAD (F)</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v>VK56</v>
+          </cell>
+          <cell r="E53">
+            <v>136.63999999999999</v>
+          </cell>
+          <cell r="F53">
+            <v>0</v>
+          </cell>
+          <cell r="G53" t="str">
+            <v>MC-OEM</v>
+          </cell>
+          <cell r="H53" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I53">
+            <v>136.63999999999999</v>
+          </cell>
+          <cell r="J53">
+            <v>0</v>
+          </cell>
+          <cell r="M53">
+            <v>136.63999999999999</v>
+          </cell>
+          <cell r="N53">
+            <v>67.22</v>
+          </cell>
+          <cell r="O53">
+            <v>127.72315878399999</v>
+          </cell>
+          <cell r="P53">
+            <v>0</v>
+          </cell>
+          <cell r="R53">
+            <v>127.72</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>T3100</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>CYLINDER BLOCK (F) RAW MAT'L</v>
+          </cell>
+          <cell r="D54" t="str">
+            <v>VK56</v>
+          </cell>
+          <cell r="E54">
+            <v>88.41</v>
+          </cell>
+          <cell r="F54">
+            <v>0</v>
+          </cell>
+          <cell r="G54" t="str">
+            <v>RM-OEM</v>
+          </cell>
+          <cell r="H54" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I54">
+            <v>88.41</v>
+          </cell>
+          <cell r="J54">
+            <v>0</v>
+          </cell>
+          <cell r="M54">
+            <v>88.41</v>
+          </cell>
+          <cell r="N54">
+            <v>67.22</v>
+          </cell>
+          <cell r="O54">
+            <v>75.535579673600012</v>
+          </cell>
+          <cell r="P54">
+            <v>0</v>
+          </cell>
+          <cell r="R54">
+            <v>75.540000000000006</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>3113</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>CYLINDER BLOCK (R) RAW MAT'L</v>
+          </cell>
+          <cell r="D55" t="str">
+            <v>VK56</v>
+          </cell>
+          <cell r="E55">
+            <v>94.54</v>
+          </cell>
+          <cell r="F55">
+            <v>0</v>
+          </cell>
+          <cell r="G55" t="str">
+            <v>RM-OEM</v>
+          </cell>
+          <cell r="H55" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I55">
+            <v>94.54</v>
+          </cell>
+          <cell r="J55">
+            <v>0</v>
+          </cell>
+          <cell r="M55">
+            <v>94.54</v>
+          </cell>
+          <cell r="N55">
+            <v>67.22</v>
+          </cell>
+          <cell r="O55">
+            <v>81.455579673599985</v>
+          </cell>
+          <cell r="P55">
+            <v>0</v>
+          </cell>
+          <cell r="R55">
+            <v>81.459999999999994</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>9775</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>CYLINDER BLOCK (F) RAW MAT'L</v>
+          </cell>
+          <cell r="D56" t="str">
+            <v>P415 V6</v>
+          </cell>
+          <cell r="E56">
+            <v>150</v>
+          </cell>
+          <cell r="F56">
+            <v>0</v>
+          </cell>
+          <cell r="G56" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H56" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I56">
+            <v>150</v>
+          </cell>
+          <cell r="J56">
+            <v>0</v>
+          </cell>
+          <cell r="M56">
+            <v>150</v>
+          </cell>
+          <cell r="N56">
+            <v>67</v>
+          </cell>
+          <cell r="O56">
+            <v>159.05992499684999</v>
+          </cell>
+          <cell r="P56">
+            <v>0</v>
+          </cell>
+          <cell r="R56">
+            <v>159.06</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>9680</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>CYLINDER BLOCK (R) RAW MAT'L</v>
+          </cell>
+          <cell r="D57" t="str">
+            <v>P415 V6</v>
+          </cell>
+          <cell r="E57">
+            <v>150</v>
+          </cell>
+          <cell r="F57">
+            <v>0</v>
+          </cell>
+          <cell r="G57" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H57" t="str">
+            <v>ADC-12</v>
+          </cell>
+          <cell r="I57">
+            <v>150</v>
+          </cell>
+          <cell r="J57">
+            <v>0</v>
+          </cell>
+          <cell r="M57">
+            <v>150</v>
+          </cell>
+          <cell r="N57">
+            <v>67</v>
+          </cell>
+          <cell r="O57">
+            <v>161.44493089345667</v>
+          </cell>
+          <cell r="P57">
+            <v>0</v>
+          </cell>
+          <cell r="R57">
+            <v>161.44</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>6496</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>CYLINDER HEAD (R) ,P558 V6</v>
+          </cell>
+          <cell r="D58" t="str">
+            <v>P558 V6</v>
+          </cell>
+          <cell r="E58">
+            <v>542.89</v>
+          </cell>
+          <cell r="F58"/>
+          <cell r="G58" t="str">
+            <v>MC-OES</v>
+          </cell>
+          <cell r="H58" t="str">
+            <v>ADC-13</v>
+          </cell>
+          <cell r="I58"/>
+          <cell r="J58"/>
+          <cell r="K58"/>
+          <cell r="L58"/>
+          <cell r="M58"/>
+          <cell r="R58">
+            <v>277.89</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>6497</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>CYLINDER HEAD (R) ,P558 V8</v>
+          </cell>
+          <cell r="D59" t="str">
+            <v>P558 V8</v>
+          </cell>
+          <cell r="E59">
+            <v>542.89</v>
+          </cell>
+          <cell r="F59"/>
+          <cell r="G59" t="str">
+            <v>MC-OES</v>
+          </cell>
+          <cell r="H59" t="str">
+            <v>ADC-14</v>
+          </cell>
+          <cell r="I59"/>
+          <cell r="J59"/>
+          <cell r="K59"/>
+          <cell r="L59"/>
+          <cell r="M59"/>
+          <cell r="R59">
+            <v>277.89</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>6511</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>CYLINDER BLOCK (F) RAW MAT'L</v>
+          </cell>
+          <cell r="D60" t="str">
+            <v>P558 V8</v>
+          </cell>
+          <cell r="E60">
+            <v>430.95</v>
+          </cell>
+          <cell r="F60"/>
+          <cell r="G60" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H60" t="str">
+            <v>ADC-15</v>
+          </cell>
+          <cell r="I60"/>
+          <cell r="J60"/>
+          <cell r="K60"/>
+          <cell r="L60"/>
+          <cell r="M60"/>
+          <cell r="R60">
+            <v>230.95</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>6515</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>CYLINDER BLOCK (R) RAW MAT'L</v>
+          </cell>
+          <cell r="D61" t="str">
+            <v>P558 V8</v>
+          </cell>
+          <cell r="E61">
+            <v>430.95</v>
+          </cell>
+          <cell r="F61"/>
+          <cell r="G61" t="str">
+            <v>RM-OES</v>
+          </cell>
+          <cell r="H61" t="str">
+            <v>ADC-16</v>
+          </cell>
+          <cell r="I61"/>
+          <cell r="J61"/>
+          <cell r="K61"/>
+          <cell r="L61"/>
+          <cell r="M61"/>
+          <cell r="R61">
+            <v>230.95</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1133,10 +4175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63:M66"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1146,18 +4188,20 @@
     <col min="3" max="3" width="33.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" customWidth="1"/>
+    <col min="18" max="18" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>155</v>
       </c>
@@ -1173,41 +4217,47 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1223,39 +4273,44 @@
       <c r="E2" s="2">
         <v>171.9</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="19">
+        <f>VLOOKUP(B2,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>186.53</v>
+      </c>
+      <c r="G2" s="2">
         <v>0.88200000000000001</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="7" t="s">
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="9">
+      <c r="O2" s="7"/>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="9">
         <v>90</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1271,39 +4326,44 @@
       <c r="E3" s="2">
         <v>171.9</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="19">
+        <f>VLOOKUP(B3,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>186.53</v>
+      </c>
+      <c r="G3" s="2">
         <v>0.88200000000000001</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="7" t="s">
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="9">
+      <c r="O3" s="7"/>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9">
         <v>90</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1319,39 +4379,44 @@
       <c r="E4" s="2">
         <v>287.70999999999998</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="19">
+        <f>VLOOKUP(B4,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>215.51</v>
+      </c>
+      <c r="G4" s="2">
         <v>0.77</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="7" t="s">
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="9">
+      <c r="O4" s="7"/>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9">
         <v>90</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1367,39 +4432,44 @@
       <c r="E5" s="2">
         <v>288.70999999999998</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="19">
+        <f>VLOOKUP(B5,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>216.51</v>
+      </c>
+      <c r="G5" s="2">
         <v>0.77</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="7" t="s">
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
+      <c r="O5" s="7"/>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9">
         <v>90</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1415,39 +4485,44 @@
       <c r="E6" s="2">
         <v>175.87</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="19">
+        <f>VLOOKUP(B6,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>189.03</v>
+      </c>
+      <c r="G6" s="2">
         <v>0.89249999999999996</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="I6" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="7" t="s">
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
+      <c r="O6" s="7"/>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9">
         <v>90</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1463,39 +4538,44 @@
       <c r="E7" s="2">
         <v>173.08</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="19">
+        <f>VLOOKUP(B7,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>187.8</v>
+      </c>
+      <c r="G7" s="2">
         <v>0.85575000000000001</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="7" t="s">
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
+      <c r="O7" s="7"/>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
         <v>90</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1511,39 +4591,44 @@
       <c r="E8" s="2">
         <v>186.46</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="19">
+        <f>VLOOKUP(B8,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>199.78</v>
+      </c>
+      <c r="G8" s="2">
         <v>0.90300000000000002</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="7" t="s">
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="9">
+      <c r="O8" s="7"/>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9">
         <v>90</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1559,39 +4644,44 @@
       <c r="E9" s="2">
         <v>183.71</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="19">
+        <f>VLOOKUP(B9,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>196.41</v>
+      </c>
+      <c r="G9" s="2">
         <v>0.86099999999999999</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="7" t="s">
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="9">
+      <c r="O9" s="7"/>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
         <v>90</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1607,39 +4697,44 @@
       <c r="E10" s="2">
         <v>185.4</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="19">
+        <f>VLOOKUP(B10,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>198.41</v>
+      </c>
+      <c r="G10" s="2">
         <v>0.88200000000000001</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="7" t="s">
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="9">
+      <c r="O10" s="7"/>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
         <v>90</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1655,39 +4750,44 @@
       <c r="E11" s="2">
         <v>182.69</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="19">
+        <f>VLOOKUP(B11,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>195.39</v>
+      </c>
+      <c r="G11" s="2">
         <v>0.86099999999999999</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="I11" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="7" t="s">
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="9">
+      <c r="O11" s="7"/>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9">
         <v>90</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1703,39 +4803,44 @@
       <c r="E12" s="2">
         <v>182.59</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="19">
+        <f>VLOOKUP(B12,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>195.29</v>
+      </c>
+      <c r="G12" s="2">
         <v>0.86099999999999999</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="7" t="s">
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="9">
+      <c r="O12" s="7"/>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9">
         <v>90</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1751,39 +4856,44 @@
       <c r="E13" s="2">
         <v>196.04</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="19">
+        <f>VLOOKUP(B13,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>210.91</v>
+      </c>
+      <c r="G13" s="2">
         <v>1.008</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="I13" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="7" t="s">
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="9">
+      <c r="O13" s="7"/>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
         <v>90</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1799,39 +4909,44 @@
       <c r="E14" s="2">
         <v>196.15</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="19">
+        <f>VLOOKUP(B14,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>211.02</v>
+      </c>
+      <c r="G14" s="2">
         <v>1.008</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="I14" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="7" t="s">
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="9">
+      <c r="O14" s="7"/>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
         <v>90</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1847,39 +4962,44 @@
       <c r="E15" s="2">
         <v>182.93</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="19">
+        <f>VLOOKUP(B15,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>197.64</v>
+      </c>
+      <c r="G15" s="2">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="I15" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="7" t="s">
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="9">
+      <c r="O15" s="7"/>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="9">
         <v>90</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1895,39 +5015,44 @@
       <c r="E16" s="2">
         <v>181.43</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="19">
+        <f>VLOOKUP(B16,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>195.99</v>
+      </c>
+      <c r="G16" s="2">
         <v>0.98699999999999999</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="I16" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="7" t="s">
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="O16" s="9">
+      <c r="O16" s="7"/>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
         <v>90</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1943,39 +5068,44 @@
       <c r="E17" s="2">
         <v>181.55</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="19">
+        <f>VLOOKUP(B17,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>196.26</v>
+      </c>
+      <c r="G17" s="2">
         <v>0.99750000000000005</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="I17" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="7" t="s">
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
-      <c r="O17" s="9">
+      <c r="O17" s="7"/>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9">
         <v>90</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1991,39 +5121,46 @@
       <c r="E18" s="2">
         <v>130.41</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="19">
+        <f>VLOOKUP(B18,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>137.19999999999999</v>
+      </c>
+      <c r="G18" s="2">
         <v>0.41265000000000002</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="I18" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K18" s="2">
+      <c r="L18" s="2">
         <v>30</v>
       </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="2"/>
+      <c r="N18" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-      <c r="O18" s="9">
+      <c r="O18" s="2">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
         <v>90</v>
       </c>
-      <c r="P18" t="s">
+      <c r="R18" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -2039,39 +5176,45 @@
       <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="F19" s="19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="I19" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2" t="s">
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="O19" s="2">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="O19" s="9">
+      <c r="Q19" s="9">
         <v>90</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -2087,39 +5230,44 @@
       <c r="E20" s="2">
         <v>131.61000000000001</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="19">
+        <f>VLOOKUP(B20,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>137.80000000000001</v>
+      </c>
+      <c r="G20" s="2">
         <v>0.42</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="I20" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K20" s="2">
+      <c r="L20" s="2">
         <v>30</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="2"/>
+      <c r="N20" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="O20" s="2"/>
+      <c r="P20" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="O20" s="9">
+      <c r="Q20" s="9">
         <v>90</v>
       </c>
-      <c r="P20" t="s">
+      <c r="R20" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -2135,39 +5283,46 @@
       <c r="E21" s="2">
         <v>142.44999999999999</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="19">
+        <f>VLOOKUP(B21,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>149.57</v>
+      </c>
+      <c r="G21" s="2">
         <v>0.48299999999999998</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="I21" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K21" s="2">
+      <c r="L21" s="2">
         <v>30</v>
       </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="2"/>
+      <c r="N21" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="O21" s="2">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="O21" s="9">
+      <c r="Q21" s="9">
         <v>90</v>
       </c>
-      <c r="P21" t="s">
+      <c r="R21" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -2183,39 +5338,46 @@
       <c r="E22" s="2">
         <v>143.21</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="19">
+        <f>VLOOKUP(B22,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>149.71</v>
+      </c>
+      <c r="G22" s="2">
         <v>0.441</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="I22" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K22" s="2">
+      <c r="L22" s="2">
         <v>30</v>
       </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="2"/>
+      <c r="N22" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="O22" s="2">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="O22" s="9">
+      <c r="Q22" s="9">
         <v>90</v>
       </c>
-      <c r="P22" t="s">
+      <c r="R22" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -2231,39 +5393,46 @@
       <c r="E23" s="2">
         <v>158.21</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="19">
+        <f>VLOOKUP(B23,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>164.71</v>
+      </c>
+      <c r="G23" s="2">
         <v>0.441</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="I23" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K23" s="2">
+      <c r="L23" s="2">
         <v>30</v>
       </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="2"/>
+      <c r="N23" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N23" s="2">
-        <v>0</v>
-      </c>
-      <c r="O23" s="9">
+      <c r="O23" s="2">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
         <v>90</v>
       </c>
-      <c r="P23" t="s">
+      <c r="R23" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -2279,39 +5448,46 @@
       <c r="E24" s="2">
         <v>142.44999999999999</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="19">
+        <f>VLOOKUP(B24,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>149.57</v>
+      </c>
+      <c r="G24" s="2">
         <v>0.48299999999999998</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="I24" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K24" s="2">
+      <c r="L24" s="2">
         <v>30</v>
       </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="2"/>
+      <c r="N24" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N24" s="2">
-        <v>0</v>
-      </c>
-      <c r="O24" s="9">
+      <c r="O24" s="2">
+        <v>43.7</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9">
         <v>90</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -2327,39 +5503,44 @@
       <c r="E25" s="2">
         <v>148.30000000000001</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="19">
+        <f>VLOOKUP(B25,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>154.80000000000001</v>
+      </c>
+      <c r="G25" s="2">
         <v>0.441</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="I25" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K25" s="2">
+      <c r="L25" s="2">
         <v>30</v>
       </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="2"/>
+      <c r="N25" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="O25" s="2"/>
+      <c r="P25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="O25" s="9">
+      <c r="Q25" s="9">
         <v>90</v>
       </c>
-      <c r="P25" t="s">
+      <c r="R25" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -2375,39 +5556,44 @@
       <c r="E26" s="2">
         <v>167.91</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="19">
+        <f>VLOOKUP(B26,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>174.41</v>
+      </c>
+      <c r="G26" s="2">
         <v>0.441</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="I26" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K26" s="2">
+      <c r="L26" s="2">
         <v>30</v>
       </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="O26" s="2"/>
+      <c r="P26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="O26" s="9">
+      <c r="Q26" s="9">
         <v>90</v>
       </c>
-      <c r="P26" t="s">
+      <c r="R26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -2423,39 +5609,44 @@
       <c r="E27" s="2">
         <v>157.30000000000001</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="19">
+        <f>VLOOKUP(B27,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>165.04</v>
+      </c>
+      <c r="G27" s="2">
         <v>0.52500000000000002</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="I27" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K27" s="2">
+      <c r="L27" s="2">
         <v>30</v>
       </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="2"/>
+      <c r="N27" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="O27" s="2"/>
+      <c r="P27" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="O27" s="9">
+      <c r="Q27" s="9">
         <v>90</v>
       </c>
-      <c r="P27" t="s">
+      <c r="R27" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -2471,39 +5662,43 @@
       <c r="E28" s="2">
         <v>0</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="19">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
         <v>0.41265000000000002</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="I28" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K28" s="2">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="O28" s="2"/>
+      <c r="P28" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="O28" s="9">
+      <c r="Q28" s="9">
         <v>90</v>
       </c>
-      <c r="P28" t="s">
+      <c r="R28" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -2519,39 +5714,46 @@
       <c r="E29" s="2">
         <v>148.51</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="19">
+        <f>VLOOKUP(B29,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>154.55000000000001</v>
+      </c>
+      <c r="G29" s="2">
         <v>0.441</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="I29" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K29" s="2">
+      <c r="L29" s="2">
         <v>30</v>
       </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="2"/>
+      <c r="N29" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="O29" s="2">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="O29" s="9">
+      <c r="Q29" s="9">
         <v>90</v>
       </c>
-      <c r="P29" t="s">
+      <c r="R29" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -2567,39 +5769,43 @@
       <c r="E30" s="2">
         <v>0</v>
       </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="19">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="I30" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K30" s="2">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2" t="s">
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N30" s="7" t="s">
+      <c r="O30" s="2"/>
+      <c r="P30" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="O30" s="9">
+      <c r="Q30" s="9">
         <v>90</v>
       </c>
-      <c r="P30" t="s">
+      <c r="R30" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
@@ -2615,39 +5821,46 @@
       <c r="E31" s="2">
         <v>136.13999999999999</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="19">
+        <f>VLOOKUP(B31,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>142.93</v>
+      </c>
+      <c r="G31" s="2">
         <v>0.41265000000000002</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="I31" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K31" s="2">
+      <c r="L31" s="2">
         <v>30</v>
       </c>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="2"/>
+      <c r="N31" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N31" s="7" t="s">
+      <c r="O31" s="2">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="O31" s="9">
+      <c r="Q31" s="9">
         <v>90</v>
       </c>
-      <c r="P31" t="s">
+      <c r="R31" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -2663,39 +5876,44 @@
       <c r="E32" s="2">
         <v>142.78</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="19">
+        <f>VLOOKUP(B32,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>156.51</v>
+      </c>
+      <c r="G32" s="2">
         <v>0.36749999999999999</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="I32" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K32" s="2">
+      <c r="L32" s="2">
         <v>45</v>
       </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="2"/>
+      <c r="N32" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N32" s="2">
-        <v>0</v>
-      </c>
-      <c r="O32" s="9">
+      <c r="O32" s="2"/>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9">
         <v>90</v>
       </c>
-      <c r="P32" t="s">
+      <c r="R32" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -2711,39 +5929,44 @@
       <c r="E33" s="2">
         <v>195.22</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="19">
+        <f>VLOOKUP(B33,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>205.75</v>
+      </c>
+      <c r="G33" s="2">
         <v>0.71399999999999997</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="I33" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="K33" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K33" s="2">
+      <c r="L33" s="2">
         <v>45</v>
       </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="2"/>
+      <c r="N33" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="N33" s="2">
-        <v>0</v>
-      </c>
-      <c r="O33" s="9">
+      <c r="O33" s="2"/>
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9">
         <v>90</v>
       </c>
-      <c r="P33" t="s">
+      <c r="R33" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -2759,40 +5982,45 @@
       <c r="E34" s="2">
         <v>194.71</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="19">
+        <f>VLOOKUP(B34,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>211.22</v>
+      </c>
+      <c r="G34" s="2">
         <v>0.78</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="I34" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K34" s="2">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2"/>
-      <c r="M34" s="7" t="s">
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="N34" s="2">
-        <v>0</v>
-      </c>
-      <c r="O34" s="9">
+      <c r="O34" s="7"/>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9">
         <v>90</v>
       </c>
-      <c r="P34" t="s">
+      <c r="R34" t="s">
         <v>180</v>
       </c>
-      <c r="Q34" s="16"/>
+      <c r="S34" s="16"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -2808,39 +6036,44 @@
       <c r="E35" s="2">
         <v>184.56</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="19">
+        <f>VLOOKUP(B35,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>202.37</v>
+      </c>
+      <c r="G35" s="2">
         <v>0.66</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="I35" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K35" s="2">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2"/>
-      <c r="M35" s="7" t="s">
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="N35" s="2">
-        <v>0</v>
-      </c>
-      <c r="O35" s="9">
+      <c r="O35" s="7"/>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="9">
         <v>90</v>
       </c>
-      <c r="P35" t="s">
+      <c r="R35" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -2856,39 +6089,44 @@
       <c r="E36" s="2">
         <v>208.99</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="19">
+        <f>VLOOKUP(B36,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>219.99</v>
+      </c>
+      <c r="G36" s="2">
         <v>0.74550000000000005</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="I36" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="K36" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K36" s="2">
+      <c r="L36" s="2">
         <v>45</v>
       </c>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="2"/>
+      <c r="N36" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="N36" s="2">
-        <v>0</v>
-      </c>
-      <c r="O36" s="9">
+      <c r="O36" s="2"/>
+      <c r="P36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="9">
         <v>90</v>
       </c>
-      <c r="P36" t="s">
+      <c r="R36" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -2904,39 +6142,44 @@
       <c r="E37" s="2">
         <v>198.13</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="19">
+        <f>VLOOKUP(B37,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>211.39</v>
+      </c>
+      <c r="G37" s="2">
         <v>0.74760000000000004</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="I37" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K37" s="2">
+      <c r="L37" s="2">
         <v>45</v>
       </c>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="2"/>
+      <c r="N37" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="N37" s="2">
-        <v>0</v>
-      </c>
-      <c r="O37" s="9">
+      <c r="O37" s="2"/>
+      <c r="P37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9">
         <v>90</v>
       </c>
-      <c r="P37" t="s">
+      <c r="R37" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
@@ -2952,39 +6195,44 @@
       <c r="E38" s="2">
         <v>312.70999999999998</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="19">
+        <f>VLOOKUP(B38,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>324.48</v>
+      </c>
+      <c r="G38" s="2">
         <v>0.59</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="I38" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="K38" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K38" s="2">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2" t="s">
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="N38" s="2">
-        <v>0</v>
-      </c>
-      <c r="O38" s="9">
+      <c r="O38" s="2"/>
+      <c r="P38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="9">
         <v>90</v>
       </c>
-      <c r="P38" t="s">
+      <c r="R38" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
@@ -3000,39 +6248,44 @@
       <c r="E39" s="2">
         <v>356.71</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="19">
+        <f>VLOOKUP(B39,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>368.64</v>
+      </c>
+      <c r="G39" s="2">
         <v>0.76</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="I39" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K39" s="2">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2" t="s">
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N39" s="2">
-        <v>0</v>
-      </c>
-      <c r="O39" s="9">
+      <c r="O39" s="2"/>
+      <c r="P39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="9">
         <v>90</v>
       </c>
-      <c r="P39" t="s">
+      <c r="R39" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,39 +6301,44 @@
       <c r="E40" s="2">
         <v>218.45</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="19">
+        <f>VLOOKUP(B40,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>210.14</v>
+      </c>
+      <c r="G40" s="2">
         <v>0.89</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="I40" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K40" s="2">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2" t="s">
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N40" s="2">
-        <v>0</v>
-      </c>
-      <c r="O40" s="9">
+      <c r="O40" s="2"/>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="9">
         <v>90</v>
       </c>
-      <c r="P40" t="s">
+      <c r="R40" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
@@ -3096,39 +6354,44 @@
       <c r="E41" s="2">
         <v>165.02</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="19">
+        <f>VLOOKUP(B41,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>177.27</v>
+      </c>
+      <c r="G41" s="2">
         <v>0.47249999999999998</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="I41" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="K41" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K41" s="2">
+      <c r="L41" s="2">
         <v>45</v>
       </c>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="2"/>
+      <c r="N41" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N41" s="2">
-        <v>0</v>
-      </c>
-      <c r="O41" s="9">
+      <c r="O41" s="2"/>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="9">
         <v>90</v>
       </c>
-      <c r="P41" t="s">
+      <c r="R41" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -3144,39 +6407,44 @@
       <c r="E42" s="2">
         <v>141.81</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="19">
+        <f>VLOOKUP(B42,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>151.41</v>
+      </c>
+      <c r="G42" s="2">
         <v>0.65100000000000002</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="I42" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K42" s="2">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2" t="s">
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N42" s="7" t="s">
+      <c r="O42" s="2"/>
+      <c r="P42" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="O42" s="9">
+      <c r="Q42" s="9">
         <v>90</v>
       </c>
-      <c r="P42" t="s">
+      <c r="R42" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
@@ -3192,39 +6460,44 @@
       <c r="E43" s="2">
         <v>195.25</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="19">
+        <f>VLOOKUP(B43,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>205.01</v>
+      </c>
+      <c r="G43" s="2">
         <v>0.66149999999999998</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="I43" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="K43" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K43" s="2">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2" t="s">
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N43" s="7" t="s">
+      <c r="O43" s="2"/>
+      <c r="P43" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="O43" s="9">
+      <c r="Q43" s="9">
         <v>90</v>
       </c>
-      <c r="P43" t="s">
+      <c r="R43" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
@@ -3240,39 +6513,44 @@
       <c r="E44" s="2">
         <v>142.66999999999999</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="19">
+        <f>VLOOKUP(B44,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>159.22</v>
+      </c>
+      <c r="G44" s="2">
         <v>0.66149999999999998</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="I44" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="K44" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K44" s="2">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2" t="s">
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="N44" s="2">
-        <v>0</v>
-      </c>
-      <c r="O44" s="9">
+      <c r="O44" s="2"/>
+      <c r="P44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="9">
         <v>90</v>
       </c>
-      <c r="P44" t="s">
+      <c r="R44" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
@@ -3288,39 +6566,44 @@
       <c r="E45" s="2">
         <v>133.06</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="19">
+        <f>VLOOKUP(B45,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>141.11000000000001</v>
+      </c>
+      <c r="G45" s="2">
         <v>0.54600000000000004</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="I45" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="K45" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K45" s="2">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2" t="s">
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="N45" s="2">
-        <v>0</v>
-      </c>
-      <c r="O45" s="9">
+      <c r="O45" s="2"/>
+      <c r="P45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="9">
         <v>90</v>
       </c>
-      <c r="P45" t="s">
+      <c r="R45" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
@@ -3336,39 +6619,44 @@
       <c r="E46" s="2">
         <v>223.71</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="19">
+        <f>VLOOKUP(B46,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>233.91</v>
+      </c>
+      <c r="G46" s="2">
         <v>0.64049999999999996</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="I46" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K46" s="2">
+      <c r="L46" s="2">
         <v>50</v>
       </c>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="2"/>
+      <c r="N46" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N46" s="2">
-        <v>0</v>
-      </c>
-      <c r="O46" s="9">
+      <c r="O46" s="2"/>
+      <c r="P46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="9">
         <v>90</v>
       </c>
-      <c r="P46" t="s">
+      <c r="R46" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
@@ -3384,39 +6672,44 @@
       <c r="E47" s="2">
         <v>137.82</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="19">
+        <f>VLOOKUP(B47,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>146.18</v>
+      </c>
+      <c r="G47" s="2">
         <v>0.56699999999999995</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="I47" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K47" s="2">
-        <v>0</v>
-      </c>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2" t="s">
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="N47" s="2">
-        <v>0</v>
-      </c>
-      <c r="O47" s="9">
+      <c r="O47" s="2"/>
+      <c r="P47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="9">
         <v>90</v>
       </c>
-      <c r="P47" t="s">
+      <c r="R47" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
@@ -3432,39 +6725,44 @@
       <c r="E48" s="2">
         <v>148.88999999999999</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="19">
+        <f>VLOOKUP(B48,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>156.79</v>
+      </c>
+      <c r="G48" s="2">
         <v>0.53549999999999998</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="I48" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K48" s="2">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2" t="s">
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N48" s="7" t="s">
+      <c r="O48" s="2"/>
+      <c r="P48" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="O48" s="9">
+      <c r="Q48" s="9">
         <v>90</v>
       </c>
-      <c r="P48" t="s">
+      <c r="R48" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
@@ -3480,39 +6778,44 @@
       <c r="E49" s="2">
         <v>164.93</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="19">
+        <f>VLOOKUP(B49,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>176.56</v>
+      </c>
+      <c r="G49" s="2">
         <v>0.77070000000000005</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H49" s="11" t="s">
+      <c r="I49" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K49" s="2">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2" t="s">
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N49" s="7" t="s">
+      <c r="O49" s="2"/>
+      <c r="P49" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="O49" s="9">
+      <c r="Q49" s="9">
         <v>90</v>
       </c>
-      <c r="P49" t="s">
+      <c r="R49" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
@@ -3528,39 +6831,44 @@
       <c r="E50" s="2">
         <v>166.24</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="19">
+        <f>VLOOKUP(B50,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>178.1</v>
+      </c>
+      <c r="G50" s="2">
         <v>0.79064999999999996</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="I50" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="J50" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="K50" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K50" s="2">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2" t="s">
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N50" s="7" t="s">
+      <c r="O50" s="2"/>
+      <c r="P50" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="O50" s="9">
+      <c r="Q50" s="9">
         <v>90</v>
       </c>
-      <c r="P50" t="s">
+      <c r="R50" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
@@ -3576,39 +6884,44 @@
       <c r="E51" s="2">
         <v>177.41</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="19">
+        <f>VLOOKUP(B51,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>195.12</v>
+      </c>
+      <c r="G51" s="2">
         <v>0.53549999999999998</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="I51" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K51" s="2">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2" t="s">
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N51" s="7" t="s">
+      <c r="O51" s="2"/>
+      <c r="P51" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="O51" s="9">
+      <c r="Q51" s="9">
         <v>90</v>
       </c>
-      <c r="P51" t="s">
+      <c r="R51" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -3624,39 +6937,44 @@
       <c r="E52" s="4">
         <v>0</v>
       </c>
-      <c r="F52" s="2">
-        <v>0</v>
-      </c>
-      <c r="G52" s="2" t="s">
+      <c r="F52" s="19">
+        <f>VLOOKUP(B52,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>194.35</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H52" s="11" t="s">
+      <c r="I52" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K52" s="2">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2" t="s">
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N52" s="7" t="s">
+      <c r="O52" s="2"/>
+      <c r="P52" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="O52" s="9">
+      <c r="Q52" s="9">
         <v>90</v>
       </c>
-      <c r="P52" t="s">
+      <c r="R52" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
@@ -3672,39 +6990,44 @@
       <c r="E53" s="4">
         <v>0</v>
       </c>
-      <c r="F53" s="2">
-        <v>0</v>
-      </c>
-      <c r="G53" s="2" t="s">
+      <c r="F53" s="19">
+        <f>VLOOKUP(B53,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>168.04</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H53" s="11" t="s">
+      <c r="I53" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="K53" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K53" s="2">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2" t="s">
+      <c r="L53" s="2">
+        <v>0</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N53" s="7" t="s">
+      <c r="O53" s="2"/>
+      <c r="P53" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="O53" s="9">
+      <c r="Q53" s="9">
         <v>90</v>
       </c>
-      <c r="P53" t="s">
+      <c r="R53" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
@@ -3720,39 +7043,44 @@
       <c r="E54" s="4">
         <v>0</v>
       </c>
-      <c r="F54" s="2">
-        <v>0</v>
-      </c>
-      <c r="G54" s="2" t="s">
+      <c r="F54" s="19">
+        <f>VLOOKUP(B54,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>154.49</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H54" s="11" t="s">
+      <c r="I54" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="K54" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K54" s="2">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2" t="s">
+      <c r="L54" s="2">
+        <v>0</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N54" s="7" t="s">
+      <c r="O54" s="2"/>
+      <c r="P54" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="O54" s="9">
+      <c r="Q54" s="9">
         <v>90</v>
       </c>
-      <c r="P54" t="s">
+      <c r="R54" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
@@ -3768,39 +7096,44 @@
       <c r="E55" s="4">
         <v>0</v>
       </c>
-      <c r="F55" s="2">
-        <v>0</v>
-      </c>
-      <c r="G55" s="2" t="s">
+      <c r="F55" s="19">
+        <f>VLOOKUP(B55,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>171.62</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H55" s="11" t="s">
+      <c r="I55" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K55" s="2">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2" t="s">
+      <c r="L55" s="2">
+        <v>0</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N55" s="7" t="s">
+      <c r="O55" s="2"/>
+      <c r="P55" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="O55" s="9">
+      <c r="Q55" s="9">
         <v>90</v>
       </c>
-      <c r="P55" t="s">
+      <c r="R55" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -3814,41 +7147,46 @@
         <v>141</v>
       </c>
       <c r="E56" s="4">
-        <v>0</v>
-      </c>
-      <c r="F56" s="2">
-        <v>0</v>
-      </c>
-      <c r="G56" s="2" t="s">
+        <v>195.25</v>
+      </c>
+      <c r="F56" s="19">
+        <f>VLOOKUP(B56,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>205.01</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H56" s="11" t="s">
+      <c r="I56" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="J56" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="K56" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K56" s="2">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2" t="s">
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N56" s="7" t="s">
+      <c r="O56" s="2"/>
+      <c r="P56" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="O56" s="9">
+      <c r="Q56" s="9">
         <v>90</v>
       </c>
-      <c r="P56" t="s">
+      <c r="R56" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
@@ -3862,39 +7200,46 @@
         <v>151</v>
       </c>
       <c r="E57" s="4"/>
-      <c r="F57" s="2">
-        <v>0</v>
-      </c>
-      <c r="G57" s="2" t="s">
+      <c r="F57" s="19">
+        <f>VLOOKUP(B57,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>154.55000000000001</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H57" s="11" t="s">
+      <c r="I57" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K57" s="2">
-        <v>0</v>
-      </c>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2" t="s">
+      <c r="L57" s="2">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N57" s="7" t="s">
+      <c r="O57" s="2">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="P57" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="O57" s="9">
+      <c r="Q57" s="9">
         <v>90</v>
       </c>
-      <c r="P57" t="s">
+      <c r="R57" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
@@ -3910,39 +7255,44 @@
       <c r="E58" s="4">
         <v>136.63999999999999</v>
       </c>
-      <c r="F58" s="2">
-        <v>0</v>
-      </c>
-      <c r="G58" s="2" t="s">
+      <c r="F58" s="19">
+        <f>VLOOKUP(B58,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>127.72</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H58" s="11" t="s">
+      <c r="I58" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="J58" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="K58" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K58" s="2">
-        <v>0</v>
-      </c>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2" t="s">
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N58" s="2">
-        <v>0</v>
-      </c>
-      <c r="O58" s="9">
+      <c r="O58" s="2"/>
+      <c r="P58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="9">
         <v>90</v>
       </c>
-      <c r="P58" t="s">
+      <c r="R58" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
@@ -3958,39 +7308,44 @@
       <c r="E59" s="4">
         <v>88.41</v>
       </c>
-      <c r="F59" s="2">
-        <v>0</v>
-      </c>
-      <c r="G59" s="2" t="s">
+      <c r="F59" s="19">
+        <f>VLOOKUP(B59,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>75.540000000000006</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H59" s="11" t="s">
+      <c r="I59" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="J59" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="K59" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K59" s="2">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2" t="s">
+      <c r="L59" s="2">
+        <v>0</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="N59" s="2">
-        <v>0</v>
-      </c>
-      <c r="O59" s="9">
+      <c r="O59" s="2"/>
+      <c r="P59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="9">
         <v>90</v>
       </c>
-      <c r="P59" t="s">
+      <c r="R59" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
@@ -4006,39 +7361,44 @@
       <c r="E60" s="4">
         <v>94.54</v>
       </c>
-      <c r="F60" s="2">
-        <v>0</v>
-      </c>
-      <c r="G60" s="2" t="s">
+      <c r="F60" s="19">
+        <f>VLOOKUP(B60,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>81.459999999999994</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H60" s="11" t="s">
+      <c r="I60" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="J60" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="K60" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K60" s="2">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2" t="s">
+      <c r="L60" s="2">
+        <v>0</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="N60" s="2">
-        <v>0</v>
-      </c>
-      <c r="O60" s="9">
+      <c r="O60" s="2"/>
+      <c r="P60" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="9">
         <v>90</v>
       </c>
-      <c r="P60" t="s">
+      <c r="R60" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
@@ -4054,39 +7414,44 @@
       <c r="E61" s="4">
         <v>150</v>
       </c>
-      <c r="F61" s="2">
-        <v>0</v>
-      </c>
-      <c r="G61" s="2" t="s">
+      <c r="F61" s="19">
+        <f>VLOOKUP(B61,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>159.06</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H61" s="11" t="s">
+      <c r="I61" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="J61" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="K61" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K61" s="2">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2" t="s">
+      <c r="L61" s="2">
+        <v>0</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="N61" s="2">
-        <v>0</v>
-      </c>
-      <c r="O61" s="9">
+      <c r="O61" s="2"/>
+      <c r="P61" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="9">
         <v>90</v>
       </c>
-      <c r="P61" t="s">
+      <c r="R61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
@@ -4102,39 +7467,44 @@
       <c r="E62" s="4">
         <v>150</v>
       </c>
-      <c r="F62" s="2">
-        <v>0</v>
-      </c>
-      <c r="G62" s="2" t="s">
+      <c r="F62" s="19">
+        <f>VLOOKUP(B62,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>161.44</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H62" s="11" t="s">
+      <c r="I62" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="J62" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="K62" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K62" s="2">
-        <v>0</v>
-      </c>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2" t="s">
+      <c r="L62" s="2">
+        <v>0</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N62" s="2">
-        <v>0</v>
-      </c>
-      <c r="O62" s="9">
+      <c r="O62" s="2"/>
+      <c r="P62" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="9">
         <v>90</v>
       </c>
-      <c r="P62" t="s">
+      <c r="R62" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>196</v>
       </c>
@@ -4150,28 +7520,33 @@
       <c r="E63" s="17">
         <v>542.89</v>
       </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2" t="s">
+      <c r="F63" s="19">
+        <f>VLOOKUP(B63,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>277.89</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H63" s="11"/>
-      <c r="I63" s="2" t="s">
+      <c r="I63" s="11"/>
+      <c r="J63" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K63" s="2">
+      <c r="K63" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L63" s="2">
         <v>180</v>
       </c>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="2"/>
+      <c r="N63" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="9"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="9"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>199</v>
       </c>
@@ -4187,28 +7562,33 @@
       <c r="E64" s="17">
         <v>542.89</v>
       </c>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2" t="s">
+      <c r="F64" s="19">
+        <f>VLOOKUP(B64,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>277.89</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H64" s="11"/>
-      <c r="I64" s="2" t="s">
+      <c r="I64" s="11"/>
+      <c r="J64" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K64" s="2">
+      <c r="K64" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L64" s="2">
         <v>180</v>
       </c>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="2"/>
+      <c r="N64" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="9"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="9"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>202</v>
       </c>
@@ -4224,28 +7604,33 @@
       <c r="E65" s="17">
         <v>430.95</v>
       </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2" t="s">
+      <c r="F65" s="19">
+        <f>VLOOKUP(B65,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>230.95</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H65" s="11"/>
-      <c r="I65" s="2" t="s">
+      <c r="I65" s="11"/>
+      <c r="J65" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="K65" s="2">
-        <v>0</v>
-      </c>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2" t="s">
+      <c r="K65" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L65" s="2">
+        <v>0</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="9"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="9"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>203</v>
       </c>
@@ -4261,28 +7646,33 @@
       <c r="E66" s="17">
         <v>430.95</v>
       </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2" t="s">
+      <c r="F66" s="19">
+        <f>VLOOKUP(B66,[1]DB!$B$2:$R$61,17,FALSE)</f>
+        <v>230.95</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H66" s="11"/>
-      <c r="I66" s="2" t="s">
+      <c r="I66" s="11"/>
+      <c r="J66" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K66" s="2">
-        <v>0</v>
-      </c>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2" t="s">
+      <c r="K66" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L66" s="2">
+        <v>0</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="9"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="9"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>194</v>
       </c>
@@ -4298,30 +7688,35 @@
       <c r="E67" s="15">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="7" t="s">
+      <c r="F67" s="20">
+        <f>E67</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H67" s="13" t="s">
+      <c r="I67" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="I67" s="7" t="s">
+      <c r="J67" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="J67" s="7" t="s">
+      <c r="K67" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K67" s="14">
+      <c r="L67" s="14">
         <v>2</v>
       </c>
-      <c r="L67" s="14">
+      <c r="M67" s="14">
         <v>2.4</v>
       </c>
-      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>187</v>
       </c>
@@ -4337,30 +7732,35 @@
       <c r="E68" s="15">
         <v>9</v>
       </c>
-      <c r="F68" s="2"/>
-      <c r="G68" s="7" t="s">
+      <c r="F68" s="20">
+        <f>E68</f>
+        <v>9</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H68" s="13" t="s">
+      <c r="I68" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="I68" s="7" t="s">
+      <c r="J68" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="J68" s="7" t="s">
+      <c r="K68" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K68" s="14">
+      <c r="L68" s="14">
         <v>2</v>
       </c>
-      <c r="L68" s="14">
+      <c r="M68" s="14">
         <v>2.4</v>
       </c>
-      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>188</v>
       </c>
@@ -4376,28 +7776,33 @@
       <c r="E69" s="15">
         <v>8</v>
       </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="7" t="s">
+      <c r="F69" s="20">
+        <f>E69</f>
+        <v>8</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H69" s="13" t="s">
+      <c r="I69" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="I69" s="7" t="s">
+      <c r="J69" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="J69" s="7" t="s">
+      <c r="K69" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K69" s="14">
+      <c r="L69" s="14">
         <v>2</v>
       </c>
-      <c r="L69" s="14">
+      <c r="M69" s="14">
         <v>2.4</v>
       </c>
-      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
